--- a/Replication/Results/VERZAMEL [new RF, MIDAS-F corrected].xlsx
+++ b/Replication/Results/VERZAMEL [new RF, MIDAS-F corrected].xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11250" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="11250" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ReadMe" sheetId="11" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="659" uniqueCount="63">
   <si>
     <t>AR</t>
   </si>
@@ -255,9 +255,6 @@
     <t>Reproduce Table43 |  DM test against PM [e PM  &gt; e MODEL]</t>
   </si>
   <si>
-    <t>Source: DM_M_greater.xlsx</t>
-  </si>
-  <si>
     <t>Reproduce Table43 |  DM test against PM [e DFM &gt; e MODEL]</t>
   </si>
   <si>
@@ -349,6 +346,15 @@
       </rPr>
       <t>inclduing PM for reference</t>
     </r>
+  </si>
+  <si>
+    <t>Source: DM_M_greater_PM.xlsx</t>
+  </si>
+  <si>
+    <t>Source: DM_M_greater_DFM.xlsx</t>
+  </si>
+  <si>
+    <t>Source: DM_M_greater_RF.xlsx</t>
   </si>
 </sst>
 </file>
@@ -2527,7 +2533,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6484,7 +6489,7 @@
             <v>0.82599999999999996</v>
           </cell>
           <cell r="E2">
-            <v>0.72599999999999998</v>
+            <v>0.73699999999999999</v>
           </cell>
           <cell r="F2">
             <v>0.50900000000000001</v>
@@ -6513,7 +6518,7 @@
             <v>0.81899999999999995</v>
           </cell>
           <cell r="E3">
-            <v>0.61299999999999999</v>
+            <v>0.71599999999999997</v>
           </cell>
           <cell r="F3">
             <v>0.45400000000000001</v>
@@ -6542,7 +6547,7 @@
             <v>0.66400000000000003</v>
           </cell>
           <cell r="E4">
-            <v>0.47699999999999998</v>
+            <v>0.70599999999999996</v>
           </cell>
           <cell r="F4">
             <v>0.39600000000000002</v>
@@ -6571,7 +6576,7 @@
             <v>0.49399999999999999</v>
           </cell>
           <cell r="E5">
-            <v>0.41399999999999998</v>
+            <v>0.73299999999999998</v>
           </cell>
           <cell r="F5">
             <v>0.40100000000000002</v>
@@ -6600,7 +6605,7 @@
             <v>0.441</v>
           </cell>
           <cell r="E6">
-            <v>0.30099999999999999</v>
+            <v>0.53200000000000003</v>
           </cell>
           <cell r="F6">
             <v>0.38400000000000001</v>
@@ -6629,7 +6634,7 @@
             <v>0.39100000000000001</v>
           </cell>
           <cell r="E7">
-            <v>0.19600000000000001</v>
+            <v>0.28100000000000003</v>
           </cell>
           <cell r="F7">
             <v>0.60299999999999998</v>
@@ -6658,7 +6663,7 @@
             <v>0.36</v>
           </cell>
           <cell r="E8">
-            <v>0.17799999999999999</v>
+            <v>0.25700000000000001</v>
           </cell>
           <cell r="F8">
             <v>0.155</v>
@@ -6687,7 +6692,7 @@
             <v>0.24299999999999999</v>
           </cell>
           <cell r="E9">
-            <v>0.153</v>
+            <v>0.20799999999999999</v>
           </cell>
           <cell r="F9">
             <v>0.26300000000000001</v>
@@ -6716,7 +6721,7 @@
             <v>0.159</v>
           </cell>
           <cell r="E10">
-            <v>0.14099999999999999</v>
+            <v>0.18099999999999999</v>
           </cell>
           <cell r="F10">
             <v>0.154</v>
@@ -6745,7 +6750,7 @@
             <v>0.13600000000000001</v>
           </cell>
           <cell r="E11">
-            <v>0.17100000000000001</v>
+            <v>0.251</v>
           </cell>
           <cell r="F11">
             <v>0.113</v>
@@ -6774,7 +6779,7 @@
             <v>0.107</v>
           </cell>
           <cell r="E12">
-            <v>0.14599999999999999</v>
+            <v>0.27700000000000002</v>
           </cell>
           <cell r="F12">
             <v>0.10199999999999999</v>
@@ -6803,7 +6808,7 @@
             <v>0.53</v>
           </cell>
           <cell r="E13">
-            <v>0.77100000000000002</v>
+            <v>0.79200000000000004</v>
           </cell>
           <cell r="F13">
             <v>0.33400000000000002</v>
@@ -6832,7 +6837,7 @@
             <v>0.52100000000000002</v>
           </cell>
           <cell r="E14">
-            <v>0.65400000000000003</v>
+            <v>0.72699999999999998</v>
           </cell>
           <cell r="F14">
             <v>0.53</v>
@@ -6861,7 +6866,7 @@
             <v>0.379</v>
           </cell>
           <cell r="E15">
-            <v>0.66400000000000003</v>
+            <v>0.67100000000000004</v>
           </cell>
           <cell r="F15">
             <v>0.13900000000000001</v>
@@ -6890,7 +6895,7 @@
             <v>0.20799999999999999</v>
           </cell>
           <cell r="E16">
-            <v>0.85899999999999999</v>
+            <v>0.82499999999999996</v>
           </cell>
           <cell r="F16">
             <v>0.85</v>
@@ -6919,7 +6924,7 @@
             <v>0.32600000000000001</v>
           </cell>
           <cell r="E17">
-            <v>0.85199999999999998</v>
+            <v>0.78300000000000003</v>
           </cell>
           <cell r="F17">
             <v>0.59799999999999998</v>
@@ -6948,7 +6953,7 @@
             <v>0.36699999999999999</v>
           </cell>
           <cell r="E18">
-            <v>0.69599999999999995</v>
+            <v>0.64</v>
           </cell>
           <cell r="F18">
             <v>0.85399999999999998</v>
@@ -6977,7 +6982,7 @@
             <v>0.32600000000000001</v>
           </cell>
           <cell r="E19">
-            <v>0.73099999999999998</v>
+            <v>0.74</v>
           </cell>
           <cell r="F19">
             <v>0.53700000000000003</v>
@@ -7006,7 +7011,7 @@
             <v>0.29499999999999998</v>
           </cell>
           <cell r="E20">
-            <v>0.71799999999999997</v>
+            <v>0.73799999999999999</v>
           </cell>
           <cell r="F20">
             <v>0.54900000000000004</v>
@@ -7035,7 +7040,7 @@
             <v>0.11899999999999999</v>
           </cell>
           <cell r="E21">
-            <v>0.67800000000000005</v>
+            <v>0.67</v>
           </cell>
           <cell r="F21">
             <v>0.36399999999999999</v>
@@ -7064,7 +7069,7 @@
             <v>0.03</v>
           </cell>
           <cell r="E22">
-            <v>0.74199999999999999</v>
+            <v>0.71799999999999997</v>
           </cell>
           <cell r="F22">
             <v>0.32300000000000001</v>
@@ -7093,7 +7098,7 @@
             <v>4.0000000000000001E-3</v>
           </cell>
           <cell r="E23">
-            <v>0.64100000000000001</v>
+            <v>0.57299999999999995</v>
           </cell>
           <cell r="F23">
             <v>0.26</v>
@@ -7122,7 +7127,7 @@
             <v>0.85899999999999999</v>
           </cell>
           <cell r="E24">
-            <v>0.36199999999999999</v>
+            <v>0.52900000000000003</v>
           </cell>
           <cell r="F24">
             <v>0.52700000000000002</v>
@@ -7151,7 +7156,7 @@
             <v>0.84699999999999998</v>
           </cell>
           <cell r="E25">
-            <v>0.36499999999999999</v>
+            <v>0.58499999999999996</v>
           </cell>
           <cell r="F25">
             <v>0.39900000000000002</v>
@@ -7180,7 +7185,7 @@
             <v>0.76500000000000001</v>
           </cell>
           <cell r="E26">
-            <v>0.317</v>
+            <v>0.67800000000000005</v>
           </cell>
           <cell r="F26">
             <v>0.47899999999999998</v>
@@ -7209,7 +7214,7 @@
             <v>0.71099999999999997</v>
           </cell>
           <cell r="E27">
-            <v>0.20300000000000001</v>
+            <v>0.60899999999999999</v>
           </cell>
           <cell r="F27">
             <v>0.40300000000000002</v>
@@ -7238,7 +7243,7 @@
             <v>0.65100000000000002</v>
           </cell>
           <cell r="E28">
-            <v>0.18</v>
+            <v>0.48799999999999999</v>
           </cell>
           <cell r="F28">
             <v>0.44600000000000001</v>
@@ -7267,7 +7272,7 @@
             <v>0.55600000000000005</v>
           </cell>
           <cell r="E29">
-            <v>0.16</v>
+            <v>0.30499999999999999</v>
           </cell>
           <cell r="F29">
             <v>0.56999999999999995</v>
@@ -7296,7 +7301,7 @@
             <v>0.51600000000000001</v>
           </cell>
           <cell r="E30">
-            <v>0.13200000000000001</v>
+            <v>0.20899999999999999</v>
           </cell>
           <cell r="F30">
             <v>0.23100000000000001</v>
@@ -7325,7 +7330,7 @@
             <v>0.34599999999999997</v>
           </cell>
           <cell r="E31">
-            <v>0.13200000000000001</v>
+            <v>0.182</v>
           </cell>
           <cell r="F31">
             <v>0.221</v>
@@ -7354,7 +7359,7 @@
             <v>0.23699999999999999</v>
           </cell>
           <cell r="E32">
-            <v>0.13100000000000001</v>
+            <v>0.16600000000000001</v>
           </cell>
           <cell r="F32">
             <v>0.19900000000000001</v>
@@ -7383,7 +7388,7 @@
             <v>0.221</v>
           </cell>
           <cell r="E33">
-            <v>0.128</v>
+            <v>0.153</v>
           </cell>
           <cell r="F33">
             <v>0.14299999999999999</v>
@@ -7412,7 +7417,7 @@
             <v>0.20399999999999999</v>
           </cell>
           <cell r="E34">
-            <v>0.108</v>
+            <v>0.161</v>
           </cell>
           <cell r="F34">
             <v>0.14599999999999999</v>
@@ -7441,7 +7446,7 @@
             <v>0.75</v>
           </cell>
           <cell r="E35">
-            <v>0.93</v>
+            <v>0.45700000000000002</v>
           </cell>
           <cell r="F35">
             <v>0.63600000000000001</v>
@@ -7470,7 +7475,7 @@
             <v>0.68899999999999995</v>
           </cell>
           <cell r="E36">
-            <v>0.91100000000000003</v>
+            <v>0.495</v>
           </cell>
           <cell r="F36">
             <v>0.55000000000000004</v>
@@ -7499,7 +7504,7 @@
             <v>0.45400000000000001</v>
           </cell>
           <cell r="E37">
-            <v>0.77800000000000002</v>
+            <v>0.42799999999999999</v>
           </cell>
           <cell r="F37">
             <v>0.623</v>
@@ -7528,7 +7533,7 @@
             <v>0.27200000000000002</v>
           </cell>
           <cell r="E38">
-            <v>0.67400000000000004</v>
+            <v>0.38800000000000001</v>
           </cell>
           <cell r="F38">
             <v>0.14599999999999999</v>
@@ -7557,7 +7562,7 @@
             <v>0.14299999999999999</v>
           </cell>
           <cell r="E39">
-            <v>0.45400000000000001</v>
+            <v>0.23200000000000001</v>
           </cell>
           <cell r="F39">
             <v>0.3</v>
@@ -7586,7 +7591,7 @@
             <v>0.23699999999999999</v>
           </cell>
           <cell r="E40">
-            <v>0.35699999999999998</v>
+            <v>0.18</v>
           </cell>
           <cell r="F40">
             <v>0.317</v>
@@ -7615,7 +7620,7 @@
             <v>0.248</v>
           </cell>
           <cell r="E41">
-            <v>0.67500000000000004</v>
+            <v>0.35499999999999998</v>
           </cell>
           <cell r="F41">
             <v>8.7999999999999995E-2</v>
@@ -7644,7 +7649,7 @@
             <v>0.222</v>
           </cell>
           <cell r="E42">
-            <v>0.57299999999999995</v>
+            <v>0.36099999999999999</v>
           </cell>
           <cell r="F42">
             <v>0.61299999999999999</v>
@@ -7673,7 +7678,7 @@
             <v>0.188</v>
           </cell>
           <cell r="E43">
-            <v>0.54400000000000004</v>
+            <v>0.46400000000000002</v>
           </cell>
           <cell r="F43">
             <v>0.23799999999999999</v>
@@ -7702,7 +7707,7 @@
             <v>0.153</v>
           </cell>
           <cell r="E44">
-            <v>0.91900000000000004</v>
+            <v>0.84099999999999997</v>
           </cell>
           <cell r="F44">
             <v>0.19700000000000001</v>
@@ -7731,7 +7736,7 @@
             <v>0.12</v>
           </cell>
           <cell r="E45">
-            <v>0.93100000000000005</v>
+            <v>0.85599999999999998</v>
           </cell>
           <cell r="F45">
             <v>0.2</v>
@@ -7760,7 +7765,7 @@
             <v>0.53800000000000003</v>
           </cell>
           <cell r="E46">
-            <v>0.20300000000000001</v>
+            <v>0.125</v>
           </cell>
           <cell r="F46">
             <v>0.19900000000000001</v>
@@ -7789,7 +7794,7 @@
             <v>0.33800000000000002</v>
           </cell>
           <cell r="E47">
-            <v>0.10100000000000001</v>
+            <v>5.2999999999999999E-2</v>
           </cell>
           <cell r="F47">
             <v>0.22</v>
@@ -7818,7 +7823,7 @@
             <v>0.10199999999999999</v>
           </cell>
           <cell r="E48">
-            <v>0.11700000000000001</v>
+            <v>6.3E-2</v>
           </cell>
           <cell r="F48">
             <v>0.24099999999999999</v>
@@ -7847,7 +7852,7 @@
             <v>4.2999999999999997E-2</v>
           </cell>
           <cell r="E49">
-            <v>0.11700000000000001</v>
+            <v>0.11600000000000001</v>
           </cell>
           <cell r="F49">
             <v>0.12</v>
@@ -7876,7 +7881,7 @@
             <v>5.0999999999999997E-2</v>
           </cell>
           <cell r="E50">
-            <v>0.111</v>
+            <v>7.5999999999999998E-2</v>
           </cell>
           <cell r="F50">
             <v>0.06</v>
@@ -7905,7 +7910,7 @@
             <v>8.6999999999999994E-2</v>
           </cell>
           <cell r="E51">
-            <v>0.124</v>
+            <v>0.105</v>
           </cell>
           <cell r="F51">
             <v>6.4000000000000001E-2</v>
@@ -7934,7 +7939,7 @@
             <v>0.09</v>
           </cell>
           <cell r="E52">
-            <v>0.14699999999999999</v>
+            <v>0.129</v>
           </cell>
           <cell r="F52">
             <v>8.3000000000000004E-2</v>
@@ -7963,7 +7968,7 @@
             <v>9.1999999999999998E-2</v>
           </cell>
           <cell r="E53">
-            <v>0.13400000000000001</v>
+            <v>0.13100000000000001</v>
           </cell>
           <cell r="F53">
             <v>0.106</v>
@@ -7992,7 +7997,7 @@
             <v>0.111</v>
           </cell>
           <cell r="E54">
-            <v>0.127</v>
+            <v>0.13300000000000001</v>
           </cell>
           <cell r="F54">
             <v>0.1</v>
@@ -8021,7 +8026,7 @@
             <v>0.112</v>
           </cell>
           <cell r="E55">
-            <v>0.14499999999999999</v>
+            <v>0.14199999999999999</v>
           </cell>
           <cell r="F55">
             <v>0.112</v>
@@ -8050,7 +8055,7 @@
             <v>0.105</v>
           </cell>
           <cell r="E56">
-            <v>0.128</v>
+            <v>0.114</v>
           </cell>
           <cell r="F56">
             <v>0.08</v>
@@ -8079,7 +8084,7 @@
             <v>0.54100000000000004</v>
           </cell>
           <cell r="E57">
-            <v>0.36099999999999999</v>
+            <v>0.35</v>
           </cell>
           <cell r="F57">
             <v>0.69</v>
@@ -8108,7 +8113,7 @@
             <v>0.749</v>
           </cell>
           <cell r="E58">
-            <v>0.41499999999999998</v>
+            <v>0.46</v>
           </cell>
           <cell r="F58">
             <v>0.84799999999999998</v>
@@ -8137,7 +8142,7 @@
             <v>0.83099999999999996</v>
           </cell>
           <cell r="E59">
-            <v>0.61399999999999999</v>
+            <v>0.72799999999999998</v>
           </cell>
           <cell r="F59">
             <v>0.71099999999999997</v>
@@ -8166,7 +8171,7 @@
             <v>0.84799999999999998</v>
           </cell>
           <cell r="E60">
-            <v>0.73299999999999998</v>
+            <v>0.78400000000000003</v>
           </cell>
           <cell r="F60">
             <v>0.93899999999999995</v>
@@ -8195,7 +8200,7 @@
             <v>0.83899999999999997</v>
           </cell>
           <cell r="E61">
-            <v>0.72599999999999998</v>
+            <v>0.78</v>
           </cell>
           <cell r="F61">
             <v>0.96099999999999997</v>
@@ -8224,7 +8229,7 @@
             <v>0.81699999999999995</v>
           </cell>
           <cell r="E62">
-            <v>0.60299999999999998</v>
+            <v>0.79500000000000004</v>
           </cell>
           <cell r="F62">
             <v>0.96899999999999997</v>
@@ -8253,7 +8258,7 @@
             <v>0.90100000000000002</v>
           </cell>
           <cell r="E63">
-            <v>0.53900000000000003</v>
+            <v>0.81299999999999994</v>
           </cell>
           <cell r="F63">
             <v>0.88300000000000001</v>
@@ -8282,7 +8287,7 @@
             <v>0.92700000000000005</v>
           </cell>
           <cell r="E64">
-            <v>0.624</v>
+            <v>0.81100000000000005</v>
           </cell>
           <cell r="F64">
             <v>0.90400000000000003</v>
@@ -8311,7 +8316,7 @@
             <v>0.83899999999999997</v>
           </cell>
           <cell r="E65">
-            <v>0.71199999999999997</v>
+            <v>0.81399999999999995</v>
           </cell>
           <cell r="F65">
             <v>0.89100000000000001</v>
@@ -8340,7 +8345,7 @@
             <v>0.79700000000000004</v>
           </cell>
           <cell r="E66">
-            <v>0.77100000000000002</v>
+            <v>0.747</v>
           </cell>
           <cell r="F66">
             <v>0.79500000000000004</v>
@@ -8369,7 +8374,7 @@
             <v>0.69899999999999995</v>
           </cell>
           <cell r="E67">
-            <v>0.73799999999999999</v>
+            <v>0.73499999999999999</v>
           </cell>
           <cell r="F67">
             <v>0.63200000000000001</v>
@@ -8398,7 +8403,7 @@
             <v>0.96699999999999997</v>
           </cell>
           <cell r="E68">
-            <v>1</v>
+            <v>0.999</v>
           </cell>
           <cell r="F68">
             <v>0.71799999999999997</v>
@@ -8427,7 +8432,7 @@
             <v>0.94</v>
           </cell>
           <cell r="E69">
-            <v>0.998</v>
+            <v>0.999</v>
           </cell>
           <cell r="F69">
             <v>0.42899999999999999</v>
@@ -8456,7 +8461,7 @@
             <v>0.90400000000000003</v>
           </cell>
           <cell r="E70">
-            <v>0.97899999999999998</v>
+            <v>0.99099999999999999</v>
           </cell>
           <cell r="F70">
             <v>0.505</v>
@@ -8485,7 +8490,7 @@
             <v>0.85399999999999998</v>
           </cell>
           <cell r="E71">
-            <v>0.95799999999999996</v>
+            <v>0.97299999999999998</v>
           </cell>
           <cell r="F71">
             <v>0.96599999999999997</v>
@@ -8514,7 +8519,7 @@
             <v>0.83799999999999997</v>
           </cell>
           <cell r="E72">
-            <v>0.94199999999999995</v>
+            <v>0.95799999999999996</v>
           </cell>
           <cell r="F72">
             <v>0.85899999999999999</v>
@@ -8543,7 +8548,7 @@
             <v>0.84099999999999997</v>
           </cell>
           <cell r="E73">
-            <v>0.82099999999999995</v>
+            <v>0.85599999999999998</v>
           </cell>
           <cell r="F73">
             <v>0.96099999999999997</v>
@@ -8572,7 +8577,7 @@
             <v>0.72299999999999998</v>
           </cell>
           <cell r="E74">
-            <v>0.753</v>
+            <v>0.78100000000000003</v>
           </cell>
           <cell r="F74">
             <v>0.63</v>
@@ -8601,7 +8606,7 @@
             <v>0.66600000000000004</v>
           </cell>
           <cell r="E75">
-            <v>0.70599999999999996</v>
+            <v>0.749</v>
           </cell>
           <cell r="F75">
             <v>0.88400000000000001</v>
@@ -8630,7 +8635,7 @@
             <v>0.60799999999999998</v>
           </cell>
           <cell r="E76">
-            <v>0.64100000000000001</v>
+            <v>0.67100000000000004</v>
           </cell>
           <cell r="F76">
             <v>0.64700000000000002</v>
@@ -8659,7 +8664,7 @@
             <v>0.45700000000000002</v>
           </cell>
           <cell r="E77">
-            <v>0.49399999999999999</v>
+            <v>0.77700000000000002</v>
           </cell>
           <cell r="F77">
             <v>0.34</v>
@@ -8688,7 +8693,7 @@
             <v>0.26700000000000002</v>
           </cell>
           <cell r="E78">
-            <v>0.317</v>
+            <v>0.53800000000000003</v>
           </cell>
           <cell r="F78">
             <v>0.78500000000000003</v>
@@ -8731,7 +8736,7 @@
             <v>.</v>
           </cell>
           <cell r="E2">
-            <v>0.192</v>
+            <v>0.29099999999999998</v>
           </cell>
           <cell r="F2">
             <v>0.19</v>
@@ -8760,7 +8765,7 @@
             <v>.</v>
           </cell>
           <cell r="E3">
-            <v>0.126</v>
+            <v>0.26200000000000001</v>
           </cell>
           <cell r="F3">
             <v>0.25900000000000001</v>
@@ -8789,7 +8794,7 @@
             <v>.</v>
           </cell>
           <cell r="E4">
-            <v>0.23400000000000001</v>
+            <v>0.55900000000000005</v>
           </cell>
           <cell r="F4">
             <v>0.27900000000000003</v>
@@ -8818,7 +8823,7 @@
             <v>.</v>
           </cell>
           <cell r="E5">
-            <v>0.45500000000000002</v>
+            <v>0.77800000000000002</v>
           </cell>
           <cell r="F5">
             <v>0.36499999999999999</v>
@@ -8847,7 +8852,7 @@
             <v>.</v>
           </cell>
           <cell r="E6">
-            <v>0.41799999999999998</v>
+            <v>0.69399999999999995</v>
           </cell>
           <cell r="F6">
             <v>0.377</v>
@@ -8876,7 +8881,7 @@
             <v>.</v>
           </cell>
           <cell r="E7">
-            <v>0.26500000000000001</v>
+            <v>0.2</v>
           </cell>
           <cell r="F7">
             <v>0.77400000000000002</v>
@@ -8905,7 +8910,7 @@
             <v>.</v>
           </cell>
           <cell r="E8">
-            <v>0.246</v>
+            <v>0.34699999999999998</v>
           </cell>
           <cell r="F8">
             <v>5.7000000000000002E-2</v>
@@ -8934,7 +8939,7 @@
             <v>.</v>
           </cell>
           <cell r="E9">
-            <v>0.39300000000000002</v>
+            <v>0.51100000000000001</v>
           </cell>
           <cell r="F9">
             <v>0.35299999999999998</v>
@@ -8963,7 +8968,7 @@
             <v>.</v>
           </cell>
           <cell r="E10">
-            <v>0.79900000000000004</v>
+            <v>0.83799999999999997</v>
           </cell>
           <cell r="F10">
             <v>0.40300000000000002</v>
@@ -8992,7 +8997,7 @@
             <v>.</v>
           </cell>
           <cell r="E11">
-            <v>0.871</v>
+            <v>0.88500000000000001</v>
           </cell>
           <cell r="F11">
             <v>0.61799999999999999</v>
@@ -9021,7 +9026,7 @@
             <v>.</v>
           </cell>
           <cell r="E12">
-            <v>0.89600000000000002</v>
+            <v>0.89700000000000002</v>
           </cell>
           <cell r="F12">
             <v>0.78100000000000003</v>
@@ -9050,7 +9055,7 @@
             <v>.</v>
           </cell>
           <cell r="E13">
-            <v>0.78100000000000003</v>
+            <v>0.91400000000000003</v>
           </cell>
           <cell r="F13">
             <v>0.372</v>
@@ -9079,7 +9084,7 @@
             <v>.</v>
           </cell>
           <cell r="E14">
-            <v>0.61399999999999999</v>
+            <v>0.79500000000000004</v>
           </cell>
           <cell r="F14">
             <v>0.5</v>
@@ -9108,7 +9113,7 @@
             <v>.</v>
           </cell>
           <cell r="E15">
-            <v>0.79</v>
+            <v>0.91900000000000004</v>
           </cell>
           <cell r="F15">
             <v>0.192</v>
@@ -9137,7 +9142,7 @@
             <v>.</v>
           </cell>
           <cell r="E16">
-            <v>0.97599999999999998</v>
+            <v>0.995</v>
           </cell>
           <cell r="F16">
             <v>0.94699999999999995</v>
@@ -9166,7 +9171,7 @@
             <v>.</v>
           </cell>
           <cell r="E17">
-            <v>0.92300000000000004</v>
+            <v>0.97</v>
           </cell>
           <cell r="F17">
             <v>0.77600000000000002</v>
@@ -9195,7 +9200,7 @@
             <v>.</v>
           </cell>
           <cell r="E18">
-            <v>0.83899999999999997</v>
+            <v>0.877</v>
           </cell>
           <cell r="F18">
             <v>0.92</v>
@@ -9224,7 +9229,7 @@
             <v>.</v>
           </cell>
           <cell r="E19">
-            <v>0.88900000000000001</v>
+            <v>0.89700000000000002</v>
           </cell>
           <cell r="F19">
             <v>0.76100000000000001</v>
@@ -9253,7 +9258,7 @@
             <v>.</v>
           </cell>
           <cell r="E20">
-            <v>0.871</v>
+            <v>0.877</v>
           </cell>
           <cell r="F20">
             <v>0.80900000000000005</v>
@@ -9282,7 +9287,7 @@
             <v>.</v>
           </cell>
           <cell r="E21">
-            <v>0.94299999999999995</v>
+            <v>0.91</v>
           </cell>
           <cell r="F21">
             <v>0.82599999999999996</v>
@@ -9311,7 +9316,7 @@
             <v>.</v>
           </cell>
           <cell r="E22">
-            <v>0.97</v>
+            <v>0.95499999999999996</v>
           </cell>
           <cell r="F22">
             <v>0.94</v>
@@ -9340,7 +9345,7 @@
             <v>.</v>
           </cell>
           <cell r="E23">
-            <v>0.98899999999999999</v>
+            <v>0.97699999999999998</v>
           </cell>
           <cell r="F23">
             <v>0.99</v>
@@ -9369,7 +9374,7 @@
             <v>.</v>
           </cell>
           <cell r="E24">
-            <v>1.6E-2</v>
+            <v>8.7999999999999995E-2</v>
           </cell>
           <cell r="F24">
             <v>0.191</v>
@@ -9398,7 +9403,7 @@
             <v>.</v>
           </cell>
           <cell r="E25">
-            <v>8.0000000000000002E-3</v>
+            <v>0.06</v>
           </cell>
           <cell r="F25">
             <v>0.19</v>
@@ -9427,7 +9432,7 @@
             <v>.</v>
           </cell>
           <cell r="E26">
-            <v>2.9000000000000001E-2</v>
+            <v>0.125</v>
           </cell>
           <cell r="F26">
             <v>0.24</v>
@@ -9456,7 +9461,7 @@
             <v>.</v>
           </cell>
           <cell r="E27">
-            <v>7.3999999999999996E-2</v>
+            <v>0.24</v>
           </cell>
           <cell r="F27">
             <v>0.22</v>
@@ -9485,7 +9490,7 @@
             <v>.</v>
           </cell>
           <cell r="E28">
-            <v>5.6000000000000001E-2</v>
+            <v>0.124</v>
           </cell>
           <cell r="F28">
             <v>0.26400000000000001</v>
@@ -9514,7 +9519,7 @@
             <v>.</v>
           </cell>
           <cell r="E29">
-            <v>1.0999999999999999E-2</v>
+            <v>0.03</v>
           </cell>
           <cell r="F29">
             <v>0.55900000000000005</v>
@@ -9543,7 +9548,7 @@
             <v>.</v>
           </cell>
           <cell r="E30">
-            <v>8.0000000000000002E-3</v>
+            <v>1.7000000000000001E-2</v>
           </cell>
           <cell r="F30">
             <v>0.02</v>
@@ -9572,7 +9577,7 @@
             <v>.</v>
           </cell>
           <cell r="E31">
-            <v>4.8000000000000001E-2</v>
+            <v>6.3E-2</v>
           </cell>
           <cell r="F31">
             <v>0.11700000000000001</v>
@@ -9601,7 +9606,7 @@
             <v>.</v>
           </cell>
           <cell r="E32">
-            <v>0.59399999999999997</v>
+            <v>0.60299999999999998</v>
           </cell>
           <cell r="F32">
             <v>0.23499999999999999</v>
@@ -9630,7 +9635,7 @@
             <v>.</v>
           </cell>
           <cell r="E33">
-            <v>0.71199999999999997</v>
+            <v>0.745</v>
           </cell>
           <cell r="F33">
             <v>0.26700000000000002</v>
@@ -9659,7 +9664,7 @@
             <v>.</v>
           </cell>
           <cell r="E34">
-            <v>0.75</v>
+            <v>0.77600000000000002</v>
           </cell>
           <cell r="F34">
             <v>0.439</v>
@@ -9688,7 +9693,7 @@
             <v>.</v>
           </cell>
           <cell r="E35">
-            <v>0.42299999999999999</v>
+            <v>6.5000000000000002E-2</v>
           </cell>
           <cell r="F35">
             <v>0.4</v>
@@ -9717,7 +9722,7 @@
             <v>.</v>
           </cell>
           <cell r="E36">
-            <v>0.50900000000000001</v>
+            <v>0.14599999999999999</v>
           </cell>
           <cell r="F36">
             <v>0.49099999999999999</v>
@@ -9746,7 +9751,7 @@
             <v>.</v>
           </cell>
           <cell r="E37">
-            <v>0.64700000000000002</v>
+            <v>0.44</v>
           </cell>
           <cell r="F37">
             <v>0.64600000000000002</v>
@@ -9775,7 +9780,7 @@
             <v>.</v>
           </cell>
           <cell r="E38">
-            <v>0.77700000000000002</v>
+            <v>0.75600000000000001</v>
           </cell>
           <cell r="F38">
             <v>0.23100000000000001</v>
@@ -9804,7 +9809,7 @@
             <v>.</v>
           </cell>
           <cell r="E39">
-            <v>0.89</v>
+            <v>0.88600000000000001</v>
           </cell>
           <cell r="F39">
             <v>0.502</v>
@@ -9833,7 +9838,7 @@
             <v>.</v>
           </cell>
           <cell r="E40">
-            <v>0.77600000000000002</v>
+            <v>0.58899999999999997</v>
           </cell>
           <cell r="F40">
             <v>0.53100000000000003</v>
@@ -9862,7 +9867,7 @@
             <v>.</v>
           </cell>
           <cell r="E41">
-            <v>0.79600000000000004</v>
+            <v>0.76500000000000001</v>
           </cell>
           <cell r="F41">
             <v>0.24</v>
@@ -9891,7 +9896,7 @@
             <v>.</v>
           </cell>
           <cell r="E42">
-            <v>0.80600000000000005</v>
+            <v>0.78800000000000003</v>
           </cell>
           <cell r="F42">
             <v>0.77900000000000003</v>
@@ -9920,7 +9925,7 @@
             <v>.</v>
           </cell>
           <cell r="E43">
-            <v>0.83199999999999996</v>
+            <v>0.86</v>
           </cell>
           <cell r="F43">
             <v>0.44500000000000001</v>
@@ -9949,7 +9954,7 @@
             <v>.</v>
           </cell>
           <cell r="E44">
-            <v>0.89</v>
+            <v>0.92100000000000004</v>
           </cell>
           <cell r="F44">
             <v>0.71399999999999997</v>
@@ -9978,7 +9983,7 @@
             <v>.</v>
           </cell>
           <cell r="E45">
-            <v>0.91300000000000003</v>
+            <v>0.93200000000000005</v>
           </cell>
           <cell r="F45">
             <v>0.47499999999999998</v>
@@ -10007,7 +10012,7 @@
             <v>.</v>
           </cell>
           <cell r="E46">
-            <v>0.16300000000000001</v>
+            <v>4.8000000000000001E-2</v>
           </cell>
           <cell r="F46">
             <v>0.13100000000000001</v>
@@ -10036,7 +10041,7 @@
             <v>.</v>
           </cell>
           <cell r="E47">
-            <v>0.26500000000000001</v>
+            <v>8.6999999999999994E-2</v>
           </cell>
           <cell r="F47">
             <v>0.23200000000000001</v>
@@ -10065,7 +10070,7 @@
             <v>.</v>
           </cell>
           <cell r="E48">
-            <v>0.72</v>
+            <v>0.46899999999999997</v>
           </cell>
           <cell r="F48">
             <v>0.45600000000000002</v>
@@ -10094,7 +10099,7 @@
             <v>.</v>
           </cell>
           <cell r="E49">
-            <v>0.97399999999999998</v>
+            <v>0.96899999999999997</v>
           </cell>
           <cell r="F49">
             <v>0.214</v>
@@ -10123,7 +10128,7 @@
             <v>.</v>
           </cell>
           <cell r="E50">
-            <v>0.96399999999999997</v>
+            <v>0.95699999999999996</v>
           </cell>
           <cell r="F50">
             <v>9.0999999999999998E-2</v>
@@ -10152,7 +10157,7 @@
             <v>.</v>
           </cell>
           <cell r="E51">
-            <v>0.79500000000000004</v>
+            <v>0.26100000000000001</v>
           </cell>
           <cell r="F51">
             <v>0.13800000000000001</v>
@@ -10181,7 +10186,7 @@
             <v>.</v>
           </cell>
           <cell r="E52">
-            <v>0.80600000000000005</v>
+            <v>0.80300000000000005</v>
           </cell>
           <cell r="F52">
             <v>0.13700000000000001</v>
@@ -10210,7 +10215,7 @@
             <v>.</v>
           </cell>
           <cell r="E53">
-            <v>0.93500000000000005</v>
+            <v>0.94899999999999995</v>
           </cell>
           <cell r="F53">
             <v>0.14799999999999999</v>
@@ -10239,7 +10244,7 @@
             <v>.</v>
           </cell>
           <cell r="E54">
-            <v>0.90200000000000002</v>
+            <v>0.91300000000000003</v>
           </cell>
           <cell r="F54">
             <v>0.16400000000000001</v>
@@ -10268,7 +10273,7 @@
             <v>.</v>
           </cell>
           <cell r="E55">
-            <v>0.90100000000000002</v>
+            <v>0.89400000000000002</v>
           </cell>
           <cell r="F55">
             <v>0.84499999999999997</v>
@@ -10297,7 +10302,7 @@
             <v>.</v>
           </cell>
           <cell r="E56">
-            <v>0.89800000000000002</v>
+            <v>0.88800000000000001</v>
           </cell>
           <cell r="F56">
             <v>0.68</v>
@@ -10326,7 +10331,7 @@
             <v>.</v>
           </cell>
           <cell r="E57">
-            <v>0.254</v>
+            <v>0.2</v>
           </cell>
           <cell r="F57">
             <v>0.63300000000000001</v>
@@ -10355,7 +10360,7 @@
             <v>.</v>
           </cell>
           <cell r="E58">
-            <v>8.1000000000000003E-2</v>
+            <v>8.6999999999999994E-2</v>
           </cell>
           <cell r="F58">
             <v>0.69799999999999995</v>
@@ -10384,7 +10389,7 @@
             <v>.</v>
           </cell>
           <cell r="E59">
-            <v>9.9000000000000005E-2</v>
+            <v>0.13</v>
           </cell>
           <cell r="F59">
             <v>0.40600000000000003</v>
@@ -10413,7 +10418,7 @@
             <v>.</v>
           </cell>
           <cell r="E60">
-            <v>0.14099999999999999</v>
+            <v>0.219</v>
           </cell>
           <cell r="F60">
             <v>0.69099999999999995</v>
@@ -10442,7 +10447,7 @@
             <v>.</v>
           </cell>
           <cell r="E61">
-            <v>0.14799999999999999</v>
+            <v>0.217</v>
           </cell>
           <cell r="F61">
             <v>0.85</v>
@@ -10471,7 +10476,7 @@
             <v>.</v>
           </cell>
           <cell r="E62">
-            <v>0.14199999999999999</v>
+            <v>0.27400000000000002</v>
           </cell>
           <cell r="F62">
             <v>0.92600000000000005</v>
@@ -10500,7 +10505,7 @@
             <v>.</v>
           </cell>
           <cell r="E63">
-            <v>7.8E-2</v>
+            <v>0.13700000000000001</v>
           </cell>
           <cell r="F63">
             <v>0.16</v>
@@ -10529,7 +10534,7 @@
             <v>.</v>
           </cell>
           <cell r="E64">
-            <v>6.6000000000000003E-2</v>
+            <v>0.129</v>
           </cell>
           <cell r="F64">
             <v>0.33100000000000002</v>
@@ -10558,7 +10563,7 @@
             <v>.</v>
           </cell>
           <cell r="E65">
-            <v>0.19</v>
+            <v>0.32</v>
           </cell>
           <cell r="F65">
             <v>0.54700000000000004</v>
@@ -10587,7 +10592,7 @@
             <v>.</v>
           </cell>
           <cell r="E66">
-            <v>0.30599999999999999</v>
+            <v>0.36</v>
           </cell>
           <cell r="F66">
             <v>0.29399999999999998</v>
@@ -10616,7 +10621,7 @@
             <v>.</v>
           </cell>
           <cell r="E67">
-            <v>0.40100000000000002</v>
+            <v>0.47099999999999997</v>
           </cell>
           <cell r="F67">
             <v>0.34</v>
@@ -10645,7 +10650,7 @@
             <v>.</v>
           </cell>
           <cell r="E68">
-            <v>0.63</v>
+            <v>0.97799999999999998</v>
           </cell>
           <cell r="F68">
             <v>0.104</v>
@@ -10674,7 +10679,7 @@
             <v>.</v>
           </cell>
           <cell r="E69">
-            <v>0.64</v>
+            <v>0.99099999999999999</v>
           </cell>
           <cell r="F69">
             <v>0.107</v>
@@ -10703,7 +10708,7 @@
             <v>.</v>
           </cell>
           <cell r="E70">
-            <v>0.40699999999999997</v>
+            <v>0.96399999999999997</v>
           </cell>
           <cell r="F70">
             <v>0.17799999999999999</v>
@@ -10732,7 +10737,7 @@
             <v>.</v>
           </cell>
           <cell r="E71">
-            <v>0.34399999999999997</v>
+            <v>0.71799999999999997</v>
           </cell>
           <cell r="F71">
             <v>0.71399999999999997</v>
@@ -10761,7 +10766,7 @@
             <v>.</v>
           </cell>
           <cell r="E72">
-            <v>0.35099999999999998</v>
+            <v>0.71099999999999997</v>
           </cell>
           <cell r="F72">
             <v>0.65</v>
@@ -10790,7 +10795,7 @@
             <v>.</v>
           </cell>
           <cell r="E73">
-            <v>0.217</v>
+            <v>0.45100000000000001</v>
           </cell>
           <cell r="F73">
             <v>0.80900000000000005</v>
@@ -10819,7 +10824,7 @@
             <v>.</v>
           </cell>
           <cell r="E74">
-            <v>0.36699999999999999</v>
+            <v>0.46300000000000002</v>
           </cell>
           <cell r="F74">
             <v>0.308</v>
@@ -10848,7 +10853,7 @@
             <v>.</v>
           </cell>
           <cell r="E75">
-            <v>0.41599999999999998</v>
+            <v>0.501</v>
           </cell>
           <cell r="F75">
             <v>0.85599999999999998</v>
@@ -10877,7 +10882,7 @@
             <v>.</v>
           </cell>
           <cell r="E76">
-            <v>0.44</v>
+            <v>0.49</v>
           </cell>
           <cell r="F76">
             <v>0.57499999999999996</v>
@@ -10906,7 +10911,7 @@
             <v>.</v>
           </cell>
           <cell r="E77">
-            <v>0.54600000000000004</v>
+            <v>0.69199999999999995</v>
           </cell>
           <cell r="F77">
             <v>0.39900000000000002</v>
@@ -10935,7 +10940,7 @@
             <v>.</v>
           </cell>
           <cell r="E78">
-            <v>0.69799999999999995</v>
+            <v>0.755</v>
           </cell>
           <cell r="F78">
             <v>0.92800000000000005</v>
@@ -10978,7 +10983,7 @@
             <v>0.93</v>
           </cell>
           <cell r="E2">
-            <v>0.90200000000000002</v>
+            <v>0.91300000000000003</v>
           </cell>
           <cell r="F2">
             <v>0.86399999999999999</v>
@@ -11007,7 +11012,7 @@
             <v>0.96099999999999997</v>
           </cell>
           <cell r="E3">
-            <v>0.91600000000000004</v>
+            <v>0.93700000000000006</v>
           </cell>
           <cell r="F3">
             <v>0.90800000000000003</v>
@@ -11036,7 +11041,7 @@
             <v>0.98699999999999999</v>
           </cell>
           <cell r="E4">
-            <v>0.97699999999999998</v>
+            <v>0.98699999999999999</v>
           </cell>
           <cell r="F4">
             <v>0.98199999999999998</v>
@@ -11065,7 +11070,7 @@
             <v>0.97199999999999998</v>
           </cell>
           <cell r="E5">
-            <v>0.99199999999999999</v>
+            <v>0.99</v>
           </cell>
           <cell r="F5">
             <v>0.81899999999999995</v>
@@ -11094,7 +11099,7 @@
             <v>0.91400000000000003</v>
           </cell>
           <cell r="E6">
-            <v>0.96199999999999997</v>
+            <v>0.96</v>
           </cell>
           <cell r="F6">
             <v>0.747</v>
@@ -11123,7 +11128,7 @@
             <v>0.98</v>
           </cell>
           <cell r="E7">
-            <v>0.97699999999999998</v>
+            <v>0.92800000000000005</v>
           </cell>
           <cell r="F7">
             <v>0.996</v>
@@ -11152,7 +11157,7 @@
             <v>0.98499999999999999</v>
           </cell>
           <cell r="E8">
-            <v>0.98899999999999999</v>
+            <v>0.99199999999999999</v>
           </cell>
           <cell r="F8">
             <v>0.84799999999999998</v>
@@ -11181,7 +11186,7 @@
             <v>0.96199999999999997</v>
           </cell>
           <cell r="E9">
-            <v>0.98399999999999999</v>
+            <v>0.98299999999999998</v>
           </cell>
           <cell r="F9">
             <v>0.68799999999999994</v>
@@ -11210,7 +11215,7 @@
             <v>0.48099999999999998</v>
           </cell>
           <cell r="E10">
-            <v>0.98499999999999999</v>
+            <v>0.94699999999999995</v>
           </cell>
           <cell r="F10">
             <v>0.437</v>
@@ -11239,7 +11244,7 @@
             <v>0.27200000000000002</v>
           </cell>
           <cell r="E11">
-            <v>0.996</v>
+            <v>0.99299999999999999</v>
           </cell>
           <cell r="F11">
             <v>0.255</v>
@@ -11268,7 +11273,7 @@
             <v>0.214</v>
           </cell>
           <cell r="E12">
-            <v>0.99399999999999999</v>
+            <v>0.98099999999999998</v>
           </cell>
           <cell r="F12">
             <v>0.249</v>
@@ -11297,7 +11302,7 @@
             <v>0.20399999999999999</v>
           </cell>
           <cell r="E13">
-            <v>0.40899999999999997</v>
+            <v>0.54500000000000004</v>
           </cell>
           <cell r="F13">
             <v>0.17599999999999999</v>
@@ -11326,7 +11331,7 @@
             <v>0.63700000000000001</v>
           </cell>
           <cell r="E14">
-            <v>0.66900000000000004</v>
+            <v>0.77900000000000003</v>
           </cell>
           <cell r="F14">
             <v>0.58499999999999996</v>
@@ -11355,7 +11360,7 @@
             <v>0.93899999999999995</v>
           </cell>
           <cell r="E15">
-            <v>0.96</v>
+            <v>0.97599999999999998</v>
           </cell>
           <cell r="F15">
             <v>0.77700000000000002</v>
@@ -11384,7 +11389,7 @@
             <v>0.64600000000000002</v>
           </cell>
           <cell r="E16">
-            <v>0.96099999999999997</v>
+            <v>0.95899999999999996</v>
           </cell>
           <cell r="F16">
             <v>0.96199999999999997</v>
@@ -11413,7 +11418,7 @@
             <v>0.78300000000000003</v>
           </cell>
           <cell r="E17">
-            <v>0.96199999999999997</v>
+            <v>0.96299999999999997</v>
           </cell>
           <cell r="F17">
             <v>0.91200000000000003</v>
@@ -11442,7 +11447,7 @@
             <v>0.90800000000000003</v>
           </cell>
           <cell r="E18">
-            <v>0.97199999999999998</v>
+            <v>0.97</v>
           </cell>
           <cell r="F18">
             <v>0.98699999999999999</v>
@@ -11471,7 +11476,7 @@
             <v>0.94799999999999995</v>
           </cell>
           <cell r="E19">
-            <v>0.98599999999999999</v>
+            <v>0.98499999999999999</v>
           </cell>
           <cell r="F19">
             <v>0.95799999999999996</v>
@@ -11500,7 +11505,7 @@
             <v>0.98499999999999999</v>
           </cell>
           <cell r="E20">
-            <v>0.99299999999999999</v>
+            <v>0.99</v>
           </cell>
           <cell r="F20">
             <v>0.98499999999999999</v>
@@ -11529,7 +11534,7 @@
             <v>0.90800000000000003</v>
           </cell>
           <cell r="E21">
-            <v>0.99</v>
+            <v>0.97599999999999998</v>
           </cell>
           <cell r="F21">
             <v>0.95699999999999996</v>
@@ -11558,7 +11563,7 @@
             <v>9.5000000000000001E-2</v>
           </cell>
           <cell r="E22">
-            <v>0.92600000000000005</v>
+            <v>0.9</v>
           </cell>
           <cell r="F22">
             <v>0.71899999999999997</v>
@@ -11587,7 +11592,7 @@
             <v>6.3E-2</v>
           </cell>
           <cell r="E23">
-            <v>0.97799999999999998</v>
+            <v>0.95</v>
           </cell>
           <cell r="F23">
             <v>0.93400000000000005</v>
@@ -11616,7 +11621,7 @@
             <v>0.93899999999999995</v>
           </cell>
           <cell r="E24">
-            <v>0.872</v>
+            <v>0.89100000000000001</v>
           </cell>
           <cell r="F24">
             <v>0.94099999999999995</v>
@@ -11645,7 +11650,7 @@
             <v>0.94299999999999995</v>
           </cell>
           <cell r="E25">
-            <v>0.86699999999999999</v>
+            <v>0.89</v>
           </cell>
           <cell r="F25">
             <v>0.93400000000000005</v>
@@ -11674,7 +11679,7 @@
             <v>0.95</v>
           </cell>
           <cell r="E26">
-            <v>0.85</v>
+            <v>0.91700000000000004</v>
           </cell>
           <cell r="F26">
             <v>0.95</v>
@@ -11703,7 +11708,7 @@
             <v>0.94899999999999995</v>
           </cell>
           <cell r="E27">
-            <v>0.78700000000000003</v>
+            <v>0.879</v>
           </cell>
           <cell r="F27">
             <v>0.58199999999999996</v>
@@ -11732,7 +11737,7 @@
             <v>0.86099999999999999</v>
           </cell>
           <cell r="E28">
-            <v>0.46800000000000003</v>
+            <v>0.75</v>
           </cell>
           <cell r="F28">
             <v>0.57999999999999996</v>
@@ -11761,7 +11766,7 @@
             <v>0.94299999999999995</v>
           </cell>
           <cell r="E29">
-            <v>0.49399999999999999</v>
+            <v>0.58799999999999997</v>
           </cell>
           <cell r="F29">
             <v>0.91100000000000003</v>
@@ -11790,7 +11795,7 @@
             <v>0.95099999999999996</v>
           </cell>
           <cell r="E30">
-            <v>0.46800000000000003</v>
+            <v>0.71799999999999997</v>
           </cell>
           <cell r="F30">
             <v>0.51100000000000001</v>
@@ -11819,7 +11824,7 @@
             <v>0.81299999999999994</v>
           </cell>
           <cell r="E31">
-            <v>0.20899999999999999</v>
+            <v>0.47599999999999998</v>
           </cell>
           <cell r="F31">
             <v>0.311</v>
@@ -11848,7 +11853,7 @@
             <v>0.34799999999999998</v>
           </cell>
           <cell r="E32">
-            <v>0.112</v>
+            <v>0.26400000000000001</v>
           </cell>
           <cell r="F32">
             <v>0.254</v>
@@ -11877,7 +11882,7 @@
             <v>0.32800000000000001</v>
           </cell>
           <cell r="E33">
-            <v>0.90300000000000002</v>
+            <v>0.90200000000000002</v>
           </cell>
           <cell r="F33">
             <v>0.17299999999999999</v>
@@ -11906,7 +11911,7 @@
             <v>0.27600000000000002</v>
           </cell>
           <cell r="E34">
-            <v>0.84</v>
+            <v>0.86199999999999999</v>
           </cell>
           <cell r="F34">
             <v>0.17699999999999999</v>
@@ -11935,7 +11940,7 @@
             <v>0.86499999999999999</v>
           </cell>
           <cell r="E35">
-            <v>0.86499999999999999</v>
+            <v>0.77500000000000002</v>
           </cell>
           <cell r="F35">
             <v>0.92300000000000004</v>
@@ -11964,7 +11969,7 @@
             <v>0.75600000000000001</v>
           </cell>
           <cell r="E36">
-            <v>0.75</v>
+            <v>0.66100000000000003</v>
           </cell>
           <cell r="F36">
             <v>0.70399999999999996</v>
@@ -11993,7 +11998,7 @@
             <v>0.68600000000000005</v>
           </cell>
           <cell r="E37">
-            <v>0.73099999999999998</v>
+            <v>0.65800000000000003</v>
           </cell>
           <cell r="F37">
             <v>0.85699999999999998</v>
@@ -12022,7 +12027,7 @@
             <v>0.85699999999999998</v>
           </cell>
           <cell r="E38">
-            <v>0.96399999999999997</v>
+            <v>0.95</v>
           </cell>
           <cell r="F38">
             <v>0.72799999999999998</v>
@@ -12051,7 +12056,7 @@
             <v>0.60399999999999998</v>
           </cell>
           <cell r="E39">
-            <v>0.90300000000000002</v>
+            <v>0.78100000000000003</v>
           </cell>
           <cell r="F39">
             <v>0.57999999999999996</v>
@@ -12080,7 +12085,7 @@
             <v>0.69299999999999995</v>
           </cell>
           <cell r="E40">
-            <v>0.89800000000000002</v>
+            <v>0.75600000000000001</v>
           </cell>
           <cell r="F40">
             <v>0.88600000000000001</v>
@@ -12109,7 +12114,7 @@
             <v>0.74299999999999999</v>
           </cell>
           <cell r="E41">
-            <v>0.98599999999999999</v>
+            <v>0.95299999999999996</v>
           </cell>
           <cell r="F41">
             <v>0.67300000000000004</v>
@@ -12138,7 +12143,7 @@
             <v>0.79800000000000004</v>
           </cell>
           <cell r="E42">
-            <v>0.97199999999999998</v>
+            <v>0.96399999999999997</v>
           </cell>
           <cell r="F42">
             <v>0.83199999999999996</v>
@@ -12167,7 +12172,7 @@
             <v>0.95499999999999996</v>
           </cell>
           <cell r="E43">
-            <v>0.96399999999999997</v>
+            <v>0.98</v>
           </cell>
           <cell r="F43">
             <v>0.72</v>
@@ -12196,7 +12201,7 @@
             <v>0.64400000000000002</v>
           </cell>
           <cell r="E44">
-            <v>0.95799999999999996</v>
+            <v>0.98099999999999998</v>
           </cell>
           <cell r="F44">
             <v>0.877</v>
@@ -12225,7 +12230,7 @@
             <v>0.56000000000000005</v>
           </cell>
           <cell r="E45">
-            <v>0.94</v>
+            <v>0.96199999999999997</v>
           </cell>
           <cell r="F45">
             <v>0.51</v>
@@ -12254,7 +12259,7 @@
             <v>0.92200000000000004</v>
           </cell>
           <cell r="E46">
-            <v>0.90600000000000003</v>
+            <v>0.88100000000000001</v>
           </cell>
           <cell r="F46">
             <v>0.91100000000000003</v>
@@ -12283,7 +12288,7 @@
             <v>0.83799999999999997</v>
           </cell>
           <cell r="E47">
-            <v>0.78700000000000003</v>
+            <v>0.74299999999999999</v>
           </cell>
           <cell r="F47">
             <v>0.73499999999999999</v>
@@ -12312,7 +12317,7 @@
             <v>0.85399999999999998</v>
           </cell>
           <cell r="E48">
-            <v>0.88400000000000001</v>
+            <v>0.82599999999999996</v>
           </cell>
           <cell r="F48">
             <v>0.86</v>
@@ -12341,7 +12346,7 @@
             <v>0.85599999999999998</v>
           </cell>
           <cell r="E49">
-            <v>0.99099999999999999</v>
+            <v>0.97499999999999998</v>
           </cell>
           <cell r="F49">
             <v>0.30599999999999999</v>
@@ -12370,7 +12375,7 @@
             <v>0.501</v>
           </cell>
           <cell r="E50">
-            <v>0.90900000000000003</v>
+            <v>0.80700000000000005</v>
           </cell>
           <cell r="F50">
             <v>0.14699999999999999</v>
@@ -12399,7 +12404,7 @@
             <v>0.89300000000000002</v>
           </cell>
           <cell r="E51">
-            <v>0.98399999999999999</v>
+            <v>0.71</v>
           </cell>
           <cell r="F51">
             <v>0.53</v>
@@ -12428,7 +12433,7 @@
             <v>0.79100000000000004</v>
           </cell>
           <cell r="E52">
-            <v>0.99399999999999999</v>
+            <v>0.97799999999999998</v>
           </cell>
           <cell r="F52">
             <v>0.31900000000000001</v>
@@ -12457,7 +12462,7 @@
             <v>0.28499999999999998</v>
           </cell>
           <cell r="E53">
-            <v>0.85499999999999998</v>
+            <v>0.77</v>
           </cell>
           <cell r="F53">
             <v>0.17399999999999999</v>
@@ -12486,7 +12491,7 @@
             <v>0.183</v>
           </cell>
           <cell r="E54">
-            <v>0.91</v>
+            <v>0.64100000000000001</v>
           </cell>
           <cell r="F54">
             <v>0.14799999999999999</v>
@@ -12515,7 +12520,7 @@
             <v>0.186</v>
           </cell>
           <cell r="E55">
-            <v>0.998</v>
+            <v>0.98699999999999999</v>
           </cell>
           <cell r="F55">
             <v>0.218</v>
@@ -12544,7 +12549,7 @@
             <v>0.16500000000000001</v>
           </cell>
           <cell r="E56">
-            <v>0.98599999999999999</v>
+            <v>0.95299999999999996</v>
           </cell>
           <cell r="F56">
             <v>0.123</v>
@@ -12573,7 +12578,7 @@
             <v>0.69599999999999995</v>
           </cell>
           <cell r="E57">
-            <v>0.56499999999999995</v>
+            <v>0.498</v>
           </cell>
           <cell r="F57">
             <v>0.82299999999999995</v>
@@ -12602,7 +12607,7 @@
             <v>0.92600000000000005</v>
           </cell>
           <cell r="E58">
-            <v>0.83899999999999997</v>
+            <v>0.80800000000000005</v>
           </cell>
           <cell r="F58">
             <v>0.95099999999999996</v>
@@ -12631,7 +12636,7 @@
             <v>0.92900000000000005</v>
           </cell>
           <cell r="E59">
-            <v>0.85499999999999998</v>
+            <v>0.89400000000000002</v>
           </cell>
           <cell r="F59">
             <v>0.97199999999999998</v>
@@ -12660,7 +12665,7 @@
             <v>0.89800000000000002</v>
           </cell>
           <cell r="E60">
-            <v>0.78700000000000003</v>
+            <v>0.82199999999999995</v>
           </cell>
           <cell r="F60">
             <v>0.97599999999999998</v>
@@ -12689,7 +12694,7 @@
             <v>0.86799999999999999</v>
           </cell>
           <cell r="E61">
-            <v>0.72099999999999997</v>
+            <v>0.79700000000000004</v>
           </cell>
           <cell r="F61">
             <v>0.97799999999999998</v>
@@ -12718,7 +12723,7 @@
             <v>0.86299999999999999</v>
           </cell>
           <cell r="E62">
-            <v>0.67300000000000004</v>
+            <v>0.82699999999999996</v>
           </cell>
           <cell r="F62">
             <v>0.98799999999999999</v>
@@ -12747,7 +12752,7 @@
             <v>0.92400000000000004</v>
           </cell>
           <cell r="E63">
-            <v>0.69799999999999995</v>
+            <v>0.82299999999999995</v>
           </cell>
           <cell r="F63">
             <v>0.92200000000000004</v>
@@ -12776,7 +12781,7 @@
             <v>0.98699999999999999</v>
           </cell>
           <cell r="E64">
-            <v>0.89100000000000001</v>
+            <v>0.91800000000000004</v>
           </cell>
           <cell r="F64">
             <v>0.99199999999999999</v>
@@ -12805,7 +12810,7 @@
             <v>0.94199999999999995</v>
           </cell>
           <cell r="E65">
-            <v>0.85</v>
+            <v>0.88400000000000001</v>
           </cell>
           <cell r="F65">
             <v>0.97299999999999998</v>
@@ -12834,7 +12839,7 @@
             <v>0.83399999999999996</v>
           </cell>
           <cell r="E66">
-            <v>0.75700000000000001</v>
+            <v>0.75900000000000001</v>
           </cell>
           <cell r="F66">
             <v>0.875</v>
@@ -12863,7 +12868,7 @@
             <v>0.82799999999999996</v>
           </cell>
           <cell r="E67">
-            <v>0.83799999999999997</v>
+            <v>0.82699999999999996</v>
           </cell>
           <cell r="F67">
             <v>0.84199999999999997</v>
@@ -12892,7 +12897,7 @@
             <v>0.53100000000000003</v>
           </cell>
           <cell r="E68">
-            <v>0.60499999999999998</v>
+            <v>0.86299999999999999</v>
           </cell>
           <cell r="F68">
             <v>0.182</v>
@@ -12921,7 +12926,7 @@
             <v>0.77600000000000002</v>
           </cell>
           <cell r="E69">
-            <v>0.79800000000000004</v>
+            <v>0.95299999999999996</v>
           </cell>
           <cell r="F69">
             <v>0.19800000000000001</v>
@@ -12950,7 +12955,7 @@
             <v>0.94599999999999995</v>
           </cell>
           <cell r="E70">
-            <v>0.90700000000000003</v>
+            <v>0.98499999999999999</v>
           </cell>
           <cell r="F70">
             <v>0.68200000000000005</v>
@@ -12979,7 +12984,7 @@
             <v>0.90100000000000002</v>
           </cell>
           <cell r="E71">
-            <v>0.79900000000000004</v>
+            <v>0.95399999999999996</v>
           </cell>
           <cell r="F71">
             <v>0.95099999999999996</v>
@@ -13008,7 +13013,7 @@
             <v>0.93899999999999995</v>
           </cell>
           <cell r="E72">
-            <v>0.88200000000000001</v>
+            <v>0.96899999999999997</v>
           </cell>
           <cell r="F72">
             <v>0.92600000000000005</v>
@@ -13037,7 +13042,7 @@
             <v>0.90600000000000003</v>
           </cell>
           <cell r="E73">
-            <v>0.77100000000000002</v>
+            <v>0.89400000000000002</v>
           </cell>
           <cell r="F73">
             <v>0.97899999999999998</v>
@@ -13066,7 +13071,7 @@
             <v>0.97699999999999998</v>
           </cell>
           <cell r="E74">
-            <v>0.94699999999999995</v>
+            <v>0.96699999999999997</v>
           </cell>
           <cell r="F74">
             <v>0.89700000000000002</v>
@@ -13095,7 +13100,7 @@
             <v>0.96899999999999997</v>
           </cell>
           <cell r="E75">
-            <v>0.93799999999999994</v>
+            <v>0.96699999999999997</v>
           </cell>
           <cell r="F75">
             <v>0.94299999999999995</v>
@@ -13124,7 +13129,7 @@
             <v>0.97</v>
           </cell>
           <cell r="E76">
-            <v>0.92400000000000004</v>
+            <v>0.95399999999999996</v>
           </cell>
           <cell r="F76">
             <v>0.92500000000000004</v>
@@ -13153,7 +13158,7 @@
             <v>0.57099999999999995</v>
           </cell>
           <cell r="E77">
-            <v>0.66300000000000003</v>
+            <v>0.84399999999999997</v>
           </cell>
           <cell r="F77">
             <v>0.439</v>
@@ -13182,7 +13187,7 @@
             <v>0.45800000000000002</v>
           </cell>
           <cell r="E78">
-            <v>0.76400000000000001</v>
+            <v>0.84899999999999998</v>
           </cell>
           <cell r="F78">
             <v>0.93799999999999994</v>
@@ -13814,7 +13819,7 @@
   <sheetData>
     <row r="2" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C2" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D2" s="10" t="s">
         <v>30</v>
@@ -13822,18 +13827,18 @@
     </row>
     <row r="3" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C3" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="3:4" x14ac:dyDescent="0.2">
       <c r="C4" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -13848,7 +13853,7 @@
   </sheetPr>
   <dimension ref="A1:N102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
+    <sheetView topLeftCell="A88" workbookViewId="0">
       <selection activeCell="K136" sqref="K136"/>
     </sheetView>
   </sheetViews>
@@ -15782,8 +15787,8 @@
   </sheetPr>
   <dimension ref="A1:AY95"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+    <sheetView tabSelected="1" topLeftCell="AI1" workbookViewId="0">
+      <selection activeCell="BL6" sqref="BL6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15842,10 +15847,10 @@
   <sheetData>
     <row r="1" spans="1:51" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Q1" s="14" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="R1" s="14"/>
       <c r="S1" s="13"/>
@@ -15858,7 +15863,7 @@
       <c r="Z1" s="15"/>
       <c r="AA1" s="15"/>
       <c r="AC1" s="14" t="s">
-        <v>37</v>
+        <v>61</v>
       </c>
       <c r="AD1" s="14"/>
       <c r="AE1" s="13"/>
@@ -15871,7 +15876,7 @@
       <c r="AL1" s="15"/>
       <c r="AM1" s="15"/>
       <c r="AO1" s="14" t="s">
-        <v>37</v>
+        <v>62</v>
       </c>
       <c r="AP1" s="14"/>
       <c r="AQ1" s="13"/>
@@ -15913,7 +15918,7 @@
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
       <c r="AC2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="AD2" s="1"/>
       <c r="AE2" s="6"/>
@@ -15926,7 +15931,7 @@
       <c r="AL2" s="4"/>
       <c r="AM2" s="4"/>
       <c r="AO2" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="AP2" s="1"/>
       <c r="AQ2" s="6"/>
@@ -16131,7 +16136,7 @@
       </c>
       <c r="V4" s="11">
         <f>'[3]Sheet 1'!E2</f>
-        <v>0.72599999999999998</v>
+        <v>0.73699999999999999</v>
       </c>
       <c r="W4" s="11">
         <f>'[3]Sheet 1'!F2</f>
@@ -16173,7 +16178,7 @@
       </c>
       <c r="AH4" s="11">
         <f>'[4]Sheet 1'!E2</f>
-        <v>0.192</v>
+        <v>0.29099999999999998</v>
       </c>
       <c r="AI4" s="11">
         <f>'[4]Sheet 1'!F2</f>
@@ -16215,7 +16220,7 @@
       </c>
       <c r="AT4" s="11">
         <f>'[5]Sheet 1'!E2</f>
-        <v>0.90200000000000002</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="AU4" s="11">
         <f>'[5]Sheet 1'!F2</f>
@@ -16304,7 +16309,7 @@
       </c>
       <c r="V5" s="11">
         <f>'[3]Sheet 1'!E3</f>
-        <v>0.61299999999999999</v>
+        <v>0.71599999999999997</v>
       </c>
       <c r="W5" s="11">
         <f>'[3]Sheet 1'!F3</f>
@@ -16344,7 +16349,7 @@
       </c>
       <c r="AH5" s="11">
         <f>'[4]Sheet 1'!E3</f>
-        <v>0.126</v>
+        <v>0.26200000000000001</v>
       </c>
       <c r="AI5" s="11">
         <f>'[4]Sheet 1'!F3</f>
@@ -16384,7 +16389,7 @@
       </c>
       <c r="AT5" s="11">
         <f>'[5]Sheet 1'!E3</f>
-        <v>0.91600000000000004</v>
+        <v>0.93700000000000006</v>
       </c>
       <c r="AU5" s="11">
         <f>'[5]Sheet 1'!F3</f>
@@ -16473,7 +16478,7 @@
       </c>
       <c r="V6" s="11">
         <f>'[3]Sheet 1'!E4</f>
-        <v>0.47699999999999998</v>
+        <v>0.70599999999999996</v>
       </c>
       <c r="W6" s="11">
         <f>'[3]Sheet 1'!F4</f>
@@ -16513,7 +16518,7 @@
       </c>
       <c r="AH6" s="11">
         <f>'[4]Sheet 1'!E4</f>
-        <v>0.23400000000000001</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="AI6" s="11">
         <f>'[4]Sheet 1'!F4</f>
@@ -16553,7 +16558,7 @@
       </c>
       <c r="AT6" s="11">
         <f>'[5]Sheet 1'!E4</f>
-        <v>0.97699999999999998</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="AU6" s="11">
         <f>'[5]Sheet 1'!F4</f>
@@ -16646,7 +16651,7 @@
       </c>
       <c r="V7" s="11">
         <f>'[3]Sheet 1'!E5</f>
-        <v>0.41399999999999998</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="W7" s="11">
         <f>'[3]Sheet 1'!F5</f>
@@ -16688,7 +16693,7 @@
       </c>
       <c r="AH7" s="11">
         <f>'[4]Sheet 1'!E5</f>
-        <v>0.45500000000000002</v>
+        <v>0.77800000000000002</v>
       </c>
       <c r="AI7" s="11">
         <f>'[4]Sheet 1'!F5</f>
@@ -16730,7 +16735,7 @@
       </c>
       <c r="AT7" s="11">
         <f>'[5]Sheet 1'!E5</f>
-        <v>0.99199999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="AU7" s="11">
         <f>'[5]Sheet 1'!F5</f>
@@ -16819,7 +16824,7 @@
       </c>
       <c r="V8" s="11">
         <f>'[3]Sheet 1'!E6</f>
-        <v>0.30099999999999999</v>
+        <v>0.53200000000000003</v>
       </c>
       <c r="W8" s="11">
         <f>'[3]Sheet 1'!F6</f>
@@ -16859,7 +16864,7 @@
       </c>
       <c r="AH8" s="11">
         <f>'[4]Sheet 1'!E6</f>
-        <v>0.41799999999999998</v>
+        <v>0.69399999999999995</v>
       </c>
       <c r="AI8" s="11">
         <f>'[4]Sheet 1'!F6</f>
@@ -16899,7 +16904,7 @@
       </c>
       <c r="AT8" s="11">
         <f>'[5]Sheet 1'!E6</f>
-        <v>0.96199999999999997</v>
+        <v>0.96</v>
       </c>
       <c r="AU8" s="11">
         <f>'[5]Sheet 1'!F6</f>
@@ -16988,7 +16993,7 @@
       </c>
       <c r="V9" s="11">
         <f>'[3]Sheet 1'!E7</f>
-        <v>0.19600000000000001</v>
+        <v>0.28100000000000003</v>
       </c>
       <c r="W9" s="11">
         <f>'[3]Sheet 1'!F7</f>
@@ -17028,7 +17033,7 @@
       </c>
       <c r="AH9" s="11">
         <f>'[4]Sheet 1'!E7</f>
-        <v>0.26500000000000001</v>
+        <v>0.2</v>
       </c>
       <c r="AI9" s="11">
         <f>'[4]Sheet 1'!F7</f>
@@ -17068,7 +17073,7 @@
       </c>
       <c r="AT9" s="11">
         <f>'[5]Sheet 1'!E7</f>
-        <v>0.97699999999999998</v>
+        <v>0.92800000000000005</v>
       </c>
       <c r="AU9" s="11">
         <f>'[5]Sheet 1'!F7</f>
@@ -17161,7 +17166,7 @@
       </c>
       <c r="V10" s="11">
         <f>'[3]Sheet 1'!E8</f>
-        <v>0.17799999999999999</v>
+        <v>0.25700000000000001</v>
       </c>
       <c r="W10" s="11">
         <f>'[3]Sheet 1'!F8</f>
@@ -17203,7 +17208,7 @@
       </c>
       <c r="AH10" s="11">
         <f>'[4]Sheet 1'!E8</f>
-        <v>0.246</v>
+        <v>0.34699999999999998</v>
       </c>
       <c r="AI10" s="11">
         <f>'[4]Sheet 1'!F8</f>
@@ -17245,7 +17250,7 @@
       </c>
       <c r="AT10" s="11">
         <f>'[5]Sheet 1'!E8</f>
-        <v>0.98899999999999999</v>
+        <v>0.99199999999999999</v>
       </c>
       <c r="AU10" s="11">
         <f>'[5]Sheet 1'!F8</f>
@@ -17334,7 +17339,7 @@
       </c>
       <c r="V11" s="11">
         <f>'[3]Sheet 1'!E9</f>
-        <v>0.153</v>
+        <v>0.20799999999999999</v>
       </c>
       <c r="W11" s="11">
         <f>'[3]Sheet 1'!F9</f>
@@ -17374,7 +17379,7 @@
       </c>
       <c r="AH11" s="11">
         <f>'[4]Sheet 1'!E9</f>
-        <v>0.39300000000000002</v>
+        <v>0.51100000000000001</v>
       </c>
       <c r="AI11" s="11">
         <f>'[4]Sheet 1'!F9</f>
@@ -17414,7 +17419,7 @@
       </c>
       <c r="AT11" s="11">
         <f>'[5]Sheet 1'!E9</f>
-        <v>0.98399999999999999</v>
+        <v>0.98299999999999998</v>
       </c>
       <c r="AU11" s="11">
         <f>'[5]Sheet 1'!F9</f>
@@ -17503,7 +17508,7 @@
       </c>
       <c r="V12" s="11">
         <f>'[3]Sheet 1'!E10</f>
-        <v>0.14099999999999999</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="W12" s="11">
         <f>'[3]Sheet 1'!F10</f>
@@ -17543,7 +17548,7 @@
       </c>
       <c r="AH12" s="11">
         <f>'[4]Sheet 1'!E10</f>
-        <v>0.79900000000000004</v>
+        <v>0.83799999999999997</v>
       </c>
       <c r="AI12" s="11">
         <f>'[4]Sheet 1'!F10</f>
@@ -17583,7 +17588,7 @@
       </c>
       <c r="AT12" s="11">
         <f>'[5]Sheet 1'!E10</f>
-        <v>0.98499999999999999</v>
+        <v>0.94699999999999995</v>
       </c>
       <c r="AU12" s="11">
         <f>'[5]Sheet 1'!F10</f>
@@ -17676,7 +17681,7 @@
       </c>
       <c r="V13" s="11">
         <f>'[3]Sheet 1'!E11</f>
-        <v>0.17100000000000001</v>
+        <v>0.251</v>
       </c>
       <c r="W13" s="11">
         <f>'[3]Sheet 1'!F11</f>
@@ -17718,7 +17723,7 @@
       </c>
       <c r="AH13" s="11">
         <f>'[4]Sheet 1'!E11</f>
-        <v>0.871</v>
+        <v>0.88500000000000001</v>
       </c>
       <c r="AI13" s="11">
         <f>'[4]Sheet 1'!F11</f>
@@ -17760,7 +17765,7 @@
       </c>
       <c r="AT13" s="11">
         <f>'[5]Sheet 1'!E11</f>
-        <v>0.996</v>
+        <v>0.99299999999999999</v>
       </c>
       <c r="AU13" s="11">
         <f>'[5]Sheet 1'!F11</f>
@@ -17847,7 +17852,7 @@
       </c>
       <c r="V14" s="11">
         <f>'[3]Sheet 1'!E12</f>
-        <v>0.14599999999999999</v>
+        <v>0.27700000000000002</v>
       </c>
       <c r="W14" s="11">
         <f>'[3]Sheet 1'!F12</f>
@@ -17887,7 +17892,7 @@
       </c>
       <c r="AH14" s="11">
         <f>'[4]Sheet 1'!E12</f>
-        <v>0.89600000000000002</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="AI14" s="11">
         <f>'[4]Sheet 1'!F12</f>
@@ -17927,7 +17932,7 @@
       </c>
       <c r="AT14" s="11">
         <f>'[5]Sheet 1'!E12</f>
-        <v>0.99399999999999999</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="AU14" s="11">
         <f>'[5]Sheet 1'!F12</f>
@@ -18163,7 +18168,7 @@
       <c r="Z19" s="4"/>
       <c r="AA19" s="4"/>
       <c r="AC19" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AD19" s="1"/>
       <c r="AE19" s="6"/>
@@ -18176,7 +18181,7 @@
       <c r="AL19" s="4"/>
       <c r="AM19" s="4"/>
       <c r="AO19" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AP19" s="1"/>
       <c r="AQ19" s="6"/>
@@ -18430,7 +18435,7 @@
       </c>
       <c r="V22" s="11">
         <f>'[3]Sheet 1'!E13</f>
-        <v>0.77100000000000002</v>
+        <v>0.79200000000000004</v>
       </c>
       <c r="W22" s="11">
         <f>'[3]Sheet 1'!F13</f>
@@ -18472,7 +18477,7 @@
       </c>
       <c r="AH22" s="11">
         <f>'[4]Sheet 1'!E13</f>
-        <v>0.78100000000000003</v>
+        <v>0.91400000000000003</v>
       </c>
       <c r="AI22" s="11">
         <f>'[4]Sheet 1'!F13</f>
@@ -18514,7 +18519,7 @@
       </c>
       <c r="AT22" s="11">
         <f>'[5]Sheet 1'!E13</f>
-        <v>0.40899999999999997</v>
+        <v>0.54500000000000004</v>
       </c>
       <c r="AU22" s="11">
         <f>'[5]Sheet 1'!F13</f>
@@ -18603,7 +18608,7 @@
       </c>
       <c r="V23" s="11">
         <f>'[3]Sheet 1'!E14</f>
-        <v>0.65400000000000003</v>
+        <v>0.72699999999999998</v>
       </c>
       <c r="W23" s="11">
         <f>'[3]Sheet 1'!F14</f>
@@ -18643,7 +18648,7 @@
       </c>
       <c r="AH23" s="11">
         <f>'[4]Sheet 1'!E14</f>
-        <v>0.61399999999999999</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="AI23" s="11">
         <f>'[4]Sheet 1'!F14</f>
@@ -18683,7 +18688,7 @@
       </c>
       <c r="AT23" s="11">
         <f>'[5]Sheet 1'!E14</f>
-        <v>0.66900000000000004</v>
+        <v>0.77900000000000003</v>
       </c>
       <c r="AU23" s="11">
         <f>'[5]Sheet 1'!F14</f>
@@ -18772,7 +18777,7 @@
       </c>
       <c r="V24" s="11">
         <f>'[3]Sheet 1'!E15</f>
-        <v>0.66400000000000003</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="W24" s="11">
         <f>'[3]Sheet 1'!F15</f>
@@ -18812,7 +18817,7 @@
       </c>
       <c r="AH24" s="11">
         <f>'[4]Sheet 1'!E15</f>
-        <v>0.79</v>
+        <v>0.91900000000000004</v>
       </c>
       <c r="AI24" s="11">
         <f>'[4]Sheet 1'!F15</f>
@@ -18852,7 +18857,7 @@
       </c>
       <c r="AT24" s="11">
         <f>'[5]Sheet 1'!E15</f>
-        <v>0.96</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="AU24" s="11">
         <f>'[5]Sheet 1'!F15</f>
@@ -18943,7 +18948,7 @@
       </c>
       <c r="V25" s="11">
         <f>'[3]Sheet 1'!E16</f>
-        <v>0.85899999999999999</v>
+        <v>0.82499999999999996</v>
       </c>
       <c r="W25" s="11">
         <f>'[3]Sheet 1'!F16</f>
@@ -18985,7 +18990,7 @@
       </c>
       <c r="AH25" s="11">
         <f>'[4]Sheet 1'!E16</f>
-        <v>0.97599999999999998</v>
+        <v>0.995</v>
       </c>
       <c r="AI25" s="11">
         <f>'[4]Sheet 1'!F16</f>
@@ -19027,7 +19032,7 @@
       </c>
       <c r="AT25" s="11">
         <f>'[5]Sheet 1'!E16</f>
-        <v>0.96099999999999997</v>
+        <v>0.95899999999999996</v>
       </c>
       <c r="AU25" s="11">
         <f>'[5]Sheet 1'!F16</f>
@@ -19116,7 +19121,7 @@
       </c>
       <c r="V26" s="11">
         <f>'[3]Sheet 1'!E17</f>
-        <v>0.85199999999999998</v>
+        <v>0.78300000000000003</v>
       </c>
       <c r="W26" s="11">
         <f>'[3]Sheet 1'!F17</f>
@@ -19156,7 +19161,7 @@
       </c>
       <c r="AH26" s="11">
         <f>'[4]Sheet 1'!E17</f>
-        <v>0.92300000000000004</v>
+        <v>0.97</v>
       </c>
       <c r="AI26" s="11">
         <f>'[4]Sheet 1'!F17</f>
@@ -19196,7 +19201,7 @@
       </c>
       <c r="AT26" s="11">
         <f>'[5]Sheet 1'!E17</f>
-        <v>0.96199999999999997</v>
+        <v>0.96299999999999997</v>
       </c>
       <c r="AU26" s="11">
         <f>'[5]Sheet 1'!F17</f>
@@ -19285,7 +19290,7 @@
       </c>
       <c r="V27" s="11">
         <f>'[3]Sheet 1'!E18</f>
-        <v>0.69599999999999995</v>
+        <v>0.64</v>
       </c>
       <c r="W27" s="11">
         <f>'[3]Sheet 1'!F18</f>
@@ -19325,7 +19330,7 @@
       </c>
       <c r="AH27" s="11">
         <f>'[4]Sheet 1'!E18</f>
-        <v>0.83899999999999997</v>
+        <v>0.877</v>
       </c>
       <c r="AI27" s="11">
         <f>'[4]Sheet 1'!F18</f>
@@ -19365,7 +19370,7 @@
       </c>
       <c r="AT27" s="11">
         <f>'[5]Sheet 1'!E18</f>
-        <v>0.97199999999999998</v>
+        <v>0.97</v>
       </c>
       <c r="AU27" s="11">
         <f>'[5]Sheet 1'!F18</f>
@@ -19456,7 +19461,7 @@
       </c>
       <c r="V28" s="11">
         <f>'[3]Sheet 1'!E19</f>
-        <v>0.73099999999999998</v>
+        <v>0.74</v>
       </c>
       <c r="W28" s="11">
         <f>'[3]Sheet 1'!F19</f>
@@ -19498,7 +19503,7 @@
       </c>
       <c r="AH28" s="11">
         <f>'[4]Sheet 1'!E19</f>
-        <v>0.88900000000000001</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="AI28" s="11">
         <f>'[4]Sheet 1'!F19</f>
@@ -19540,7 +19545,7 @@
       </c>
       <c r="AT28" s="11">
         <f>'[5]Sheet 1'!E19</f>
-        <v>0.98599999999999999</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="AU28" s="11">
         <f>'[5]Sheet 1'!F19</f>
@@ -19629,7 +19634,7 @@
       </c>
       <c r="V29" s="11">
         <f>'[3]Sheet 1'!E20</f>
-        <v>0.71799999999999997</v>
+        <v>0.73799999999999999</v>
       </c>
       <c r="W29" s="11">
         <f>'[3]Sheet 1'!F20</f>
@@ -19669,7 +19674,7 @@
       </c>
       <c r="AH29" s="11">
         <f>'[4]Sheet 1'!E20</f>
-        <v>0.871</v>
+        <v>0.877</v>
       </c>
       <c r="AI29" s="11">
         <f>'[4]Sheet 1'!F20</f>
@@ -19709,7 +19714,7 @@
       </c>
       <c r="AT29" s="11">
         <f>'[5]Sheet 1'!E20</f>
-        <v>0.99299999999999999</v>
+        <v>0.99</v>
       </c>
       <c r="AU29" s="11">
         <f>'[5]Sheet 1'!F20</f>
@@ -19798,7 +19803,7 @@
       </c>
       <c r="V30" s="11">
         <f>'[3]Sheet 1'!E21</f>
-        <v>0.67800000000000005</v>
+        <v>0.67</v>
       </c>
       <c r="W30" s="11">
         <f>'[3]Sheet 1'!F21</f>
@@ -19838,7 +19843,7 @@
       </c>
       <c r="AH30" s="11">
         <f>'[4]Sheet 1'!E21</f>
-        <v>0.94299999999999995</v>
+        <v>0.91</v>
       </c>
       <c r="AI30" s="11">
         <f>'[4]Sheet 1'!F21</f>
@@ -19878,7 +19883,7 @@
       </c>
       <c r="AT30" s="11">
         <f>'[5]Sheet 1'!E21</f>
-        <v>0.99</v>
+        <v>0.97599999999999998</v>
       </c>
       <c r="AU30" s="11">
         <f>'[5]Sheet 1'!F21</f>
@@ -19969,7 +19974,7 @@
       </c>
       <c r="V31" s="11">
         <f>'[3]Sheet 1'!E22</f>
-        <v>0.74199999999999999</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="W31" s="11">
         <f>'[3]Sheet 1'!F22</f>
@@ -20011,7 +20016,7 @@
       </c>
       <c r="AH31" s="11">
         <f>'[4]Sheet 1'!E22</f>
-        <v>0.97</v>
+        <v>0.95499999999999996</v>
       </c>
       <c r="AI31" s="11">
         <f>'[4]Sheet 1'!F22</f>
@@ -20053,7 +20058,7 @@
       </c>
       <c r="AT31" s="11">
         <f>'[5]Sheet 1'!E22</f>
-        <v>0.92600000000000005</v>
+        <v>0.9</v>
       </c>
       <c r="AU31" s="11">
         <f>'[5]Sheet 1'!F22</f>
@@ -20140,7 +20145,7 @@
       </c>
       <c r="V32" s="11">
         <f>'[3]Sheet 1'!E23</f>
-        <v>0.64100000000000001</v>
+        <v>0.57299999999999995</v>
       </c>
       <c r="W32" s="11">
         <f>'[3]Sheet 1'!F23</f>
@@ -20180,7 +20185,7 @@
       </c>
       <c r="AH32" s="11">
         <f>'[4]Sheet 1'!E23</f>
-        <v>0.98899999999999999</v>
+        <v>0.97699999999999998</v>
       </c>
       <c r="AI32" s="11">
         <f>'[4]Sheet 1'!F23</f>
@@ -20220,7 +20225,7 @@
       </c>
       <c r="AT32" s="11">
         <f>'[5]Sheet 1'!E23</f>
-        <v>0.97799999999999998</v>
+        <v>0.95</v>
       </c>
       <c r="AU32" s="11">
         <f>'[5]Sheet 1'!F23</f>
@@ -20366,7 +20371,7 @@
       </c>
       <c r="V34" s="11">
         <f>'[3]Sheet 1'!E24</f>
-        <v>0.36199999999999999</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="W34" s="11">
         <f>'[3]Sheet 1'!F24</f>
@@ -20408,7 +20413,7 @@
       </c>
       <c r="AH34" s="11">
         <f>'[4]Sheet 1'!E24</f>
-        <v>1.6E-2</v>
+        <v>8.7999999999999995E-2</v>
       </c>
       <c r="AI34" s="11">
         <f>'[4]Sheet 1'!F24</f>
@@ -20450,7 +20455,7 @@
       </c>
       <c r="AT34" s="11">
         <f>'[5]Sheet 1'!E24</f>
-        <v>0.872</v>
+        <v>0.89100000000000001</v>
       </c>
       <c r="AU34" s="11">
         <f>'[5]Sheet 1'!F24</f>
@@ -20537,7 +20542,7 @@
       </c>
       <c r="V35" s="11">
         <f>'[3]Sheet 1'!E25</f>
-        <v>0.36499999999999999</v>
+        <v>0.58499999999999996</v>
       </c>
       <c r="W35" s="11">
         <f>'[3]Sheet 1'!F25</f>
@@ -20577,7 +20582,7 @@
       </c>
       <c r="AH35" s="11">
         <f>'[4]Sheet 1'!E25</f>
-        <v>8.0000000000000002E-3</v>
+        <v>0.06</v>
       </c>
       <c r="AI35" s="11">
         <f>'[4]Sheet 1'!F25</f>
@@ -20617,7 +20622,7 @@
       </c>
       <c r="AT35" s="11">
         <f>'[5]Sheet 1'!E25</f>
-        <v>0.86699999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="AU35" s="11">
         <f>'[5]Sheet 1'!F25</f>
@@ -20704,7 +20709,7 @@
       </c>
       <c r="V36" s="11">
         <f>'[3]Sheet 1'!E26</f>
-        <v>0.317</v>
+        <v>0.67800000000000005</v>
       </c>
       <c r="W36" s="11">
         <f>'[3]Sheet 1'!F26</f>
@@ -20744,7 +20749,7 @@
       </c>
       <c r="AH36" s="11">
         <f>'[4]Sheet 1'!E26</f>
-        <v>2.9000000000000001E-2</v>
+        <v>0.125</v>
       </c>
       <c r="AI36" s="11">
         <f>'[4]Sheet 1'!F26</f>
@@ -20784,7 +20789,7 @@
       </c>
       <c r="AT36" s="11">
         <f>'[5]Sheet 1'!E26</f>
-        <v>0.85</v>
+        <v>0.91700000000000004</v>
       </c>
       <c r="AU36" s="11">
         <f>'[5]Sheet 1'!F26</f>
@@ -20875,7 +20880,7 @@
       </c>
       <c r="V37" s="11">
         <f>'[3]Sheet 1'!E27</f>
-        <v>0.20300000000000001</v>
+        <v>0.60899999999999999</v>
       </c>
       <c r="W37" s="11">
         <f>'[3]Sheet 1'!F27</f>
@@ -20917,7 +20922,7 @@
       </c>
       <c r="AH37" s="11">
         <f>'[4]Sheet 1'!E27</f>
-        <v>7.3999999999999996E-2</v>
+        <v>0.24</v>
       </c>
       <c r="AI37" s="11">
         <f>'[4]Sheet 1'!F27</f>
@@ -20959,7 +20964,7 @@
       </c>
       <c r="AT37" s="11">
         <f>'[5]Sheet 1'!E27</f>
-        <v>0.78700000000000003</v>
+        <v>0.879</v>
       </c>
       <c r="AU37" s="11">
         <f>'[5]Sheet 1'!F27</f>
@@ -21046,7 +21051,7 @@
       </c>
       <c r="V38" s="11">
         <f>'[3]Sheet 1'!E28</f>
-        <v>0.18</v>
+        <v>0.48799999999999999</v>
       </c>
       <c r="W38" s="11">
         <f>'[3]Sheet 1'!F28</f>
@@ -21086,7 +21091,7 @@
       </c>
       <c r="AH38" s="11">
         <f>'[4]Sheet 1'!E28</f>
-        <v>5.6000000000000001E-2</v>
+        <v>0.124</v>
       </c>
       <c r="AI38" s="11">
         <f>'[4]Sheet 1'!F28</f>
@@ -21126,7 +21131,7 @@
       </c>
       <c r="AT38" s="11">
         <f>'[5]Sheet 1'!E28</f>
-        <v>0.46800000000000003</v>
+        <v>0.75</v>
       </c>
       <c r="AU38" s="11">
         <f>'[5]Sheet 1'!F28</f>
@@ -21213,7 +21218,7 @@
       </c>
       <c r="V39" s="11">
         <f>'[3]Sheet 1'!E29</f>
-        <v>0.16</v>
+        <v>0.30499999999999999</v>
       </c>
       <c r="W39" s="11">
         <f>'[3]Sheet 1'!F29</f>
@@ -21253,7 +21258,7 @@
       </c>
       <c r="AH39" s="11">
         <f>'[4]Sheet 1'!E29</f>
-        <v>1.0999999999999999E-2</v>
+        <v>0.03</v>
       </c>
       <c r="AI39" s="11">
         <f>'[4]Sheet 1'!F29</f>
@@ -21293,7 +21298,7 @@
       </c>
       <c r="AT39" s="11">
         <f>'[5]Sheet 1'!E29</f>
-        <v>0.49399999999999999</v>
+        <v>0.58799999999999997</v>
       </c>
       <c r="AU39" s="11">
         <f>'[5]Sheet 1'!F29</f>
@@ -21384,7 +21389,7 @@
       </c>
       <c r="V40" s="11">
         <f>'[3]Sheet 1'!E30</f>
-        <v>0.13200000000000001</v>
+        <v>0.20899999999999999</v>
       </c>
       <c r="W40" s="11">
         <f>'[3]Sheet 1'!F30</f>
@@ -21426,7 +21431,7 @@
       </c>
       <c r="AH40" s="11">
         <f>'[4]Sheet 1'!E30</f>
-        <v>8.0000000000000002E-3</v>
+        <v>1.7000000000000001E-2</v>
       </c>
       <c r="AI40" s="11">
         <f>'[4]Sheet 1'!F30</f>
@@ -21468,7 +21473,7 @@
       </c>
       <c r="AT40" s="11">
         <f>'[5]Sheet 1'!E30</f>
-        <v>0.46800000000000003</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="AU40" s="11">
         <f>'[5]Sheet 1'!F30</f>
@@ -21555,7 +21560,7 @@
       </c>
       <c r="V41" s="11">
         <f>'[3]Sheet 1'!E31</f>
-        <v>0.13200000000000001</v>
+        <v>0.182</v>
       </c>
       <c r="W41" s="11">
         <f>'[3]Sheet 1'!F31</f>
@@ -21595,7 +21600,7 @@
       </c>
       <c r="AH41" s="11">
         <f>'[4]Sheet 1'!E31</f>
-        <v>4.8000000000000001E-2</v>
+        <v>6.3E-2</v>
       </c>
       <c r="AI41" s="11">
         <f>'[4]Sheet 1'!F31</f>
@@ -21635,7 +21640,7 @@
       </c>
       <c r="AT41" s="11">
         <f>'[5]Sheet 1'!E31</f>
-        <v>0.20899999999999999</v>
+        <v>0.47599999999999998</v>
       </c>
       <c r="AU41" s="11">
         <f>'[5]Sheet 1'!F31</f>
@@ -21722,7 +21727,7 @@
       </c>
       <c r="V42" s="11">
         <f>'[3]Sheet 1'!E32</f>
-        <v>0.13100000000000001</v>
+        <v>0.16600000000000001</v>
       </c>
       <c r="W42" s="11">
         <f>'[3]Sheet 1'!F32</f>
@@ -21762,7 +21767,7 @@
       </c>
       <c r="AH42" s="11">
         <f>'[4]Sheet 1'!E32</f>
-        <v>0.59399999999999997</v>
+        <v>0.60299999999999998</v>
       </c>
       <c r="AI42" s="11">
         <f>'[4]Sheet 1'!F32</f>
@@ -21802,7 +21807,7 @@
       </c>
       <c r="AT42" s="11">
         <f>'[5]Sheet 1'!E32</f>
-        <v>0.112</v>
+        <v>0.26400000000000001</v>
       </c>
       <c r="AU42" s="11">
         <f>'[5]Sheet 1'!F32</f>
@@ -21893,7 +21898,7 @@
       </c>
       <c r="V43" s="11">
         <f>'[3]Sheet 1'!E33</f>
-        <v>0.128</v>
+        <v>0.153</v>
       </c>
       <c r="W43" s="11">
         <f>'[3]Sheet 1'!F33</f>
@@ -21935,7 +21940,7 @@
       </c>
       <c r="AH43" s="11">
         <f>'[4]Sheet 1'!E33</f>
-        <v>0.71199999999999997</v>
+        <v>0.745</v>
       </c>
       <c r="AI43" s="11">
         <f>'[4]Sheet 1'!F33</f>
@@ -21977,7 +21982,7 @@
       </c>
       <c r="AT43" s="11">
         <f>'[5]Sheet 1'!E33</f>
-        <v>0.90300000000000002</v>
+        <v>0.90200000000000002</v>
       </c>
       <c r="AU43" s="11">
         <f>'[5]Sheet 1'!F33</f>
@@ -22064,7 +22069,7 @@
       </c>
       <c r="V44" s="11">
         <f>'[3]Sheet 1'!E34</f>
-        <v>0.108</v>
+        <v>0.161</v>
       </c>
       <c r="W44" s="11">
         <f>'[3]Sheet 1'!F34</f>
@@ -22104,7 +22109,7 @@
       </c>
       <c r="AH44" s="11">
         <f>'[4]Sheet 1'!E34</f>
-        <v>0.75</v>
+        <v>0.77600000000000002</v>
       </c>
       <c r="AI44" s="11">
         <f>'[4]Sheet 1'!F34</f>
@@ -22144,7 +22149,7 @@
       </c>
       <c r="AT44" s="11">
         <f>'[5]Sheet 1'!E34</f>
-        <v>0.84</v>
+        <v>0.86199999999999999</v>
       </c>
       <c r="AU44" s="11">
         <f>'[5]Sheet 1'!F34</f>
@@ -22289,7 +22294,7 @@
       </c>
       <c r="V46" s="11">
         <f>'[3]Sheet 1'!E35</f>
-        <v>0.93</v>
+        <v>0.45700000000000002</v>
       </c>
       <c r="W46" s="11">
         <f>'[3]Sheet 1'!F35</f>
@@ -22331,7 +22336,7 @@
       </c>
       <c r="AH46" s="11">
         <f>'[4]Sheet 1'!E35</f>
-        <v>0.42299999999999999</v>
+        <v>6.5000000000000002E-2</v>
       </c>
       <c r="AI46" s="11">
         <f>'[4]Sheet 1'!F35</f>
@@ -22373,7 +22378,7 @@
       </c>
       <c r="AT46" s="11">
         <f>'[5]Sheet 1'!E35</f>
-        <v>0.86499999999999999</v>
+        <v>0.77500000000000002</v>
       </c>
       <c r="AU46" s="11">
         <f>'[5]Sheet 1'!F35</f>
@@ -22459,7 +22464,7 @@
       </c>
       <c r="V47" s="11">
         <f>'[3]Sheet 1'!E36</f>
-        <v>0.91100000000000003</v>
+        <v>0.495</v>
       </c>
       <c r="W47" s="11">
         <f>'[3]Sheet 1'!F36</f>
@@ -22499,7 +22504,7 @@
       </c>
       <c r="AH47" s="11">
         <f>'[4]Sheet 1'!E36</f>
-        <v>0.50900000000000001</v>
+        <v>0.14599999999999999</v>
       </c>
       <c r="AI47" s="11">
         <f>'[4]Sheet 1'!F36</f>
@@ -22539,7 +22544,7 @@
       </c>
       <c r="AT47" s="11">
         <f>'[5]Sheet 1'!E36</f>
-        <v>0.75</v>
+        <v>0.66100000000000003</v>
       </c>
       <c r="AU47" s="11">
         <f>'[5]Sheet 1'!F36</f>
@@ -22625,7 +22630,7 @@
       </c>
       <c r="V48" s="11">
         <f>'[3]Sheet 1'!E37</f>
-        <v>0.77800000000000002</v>
+        <v>0.42799999999999999</v>
       </c>
       <c r="W48" s="11">
         <f>'[3]Sheet 1'!F37</f>
@@ -22665,7 +22670,7 @@
       </c>
       <c r="AH48" s="11">
         <f>'[4]Sheet 1'!E37</f>
-        <v>0.64700000000000002</v>
+        <v>0.44</v>
       </c>
       <c r="AI48" s="11">
         <f>'[4]Sheet 1'!F37</f>
@@ -22705,7 +22710,7 @@
       </c>
       <c r="AT48" s="11">
         <f>'[5]Sheet 1'!E37</f>
-        <v>0.73099999999999998</v>
+        <v>0.65800000000000003</v>
       </c>
       <c r="AU48" s="11">
         <f>'[5]Sheet 1'!F37</f>
@@ -22795,7 +22800,7 @@
       </c>
       <c r="V49" s="11">
         <f>'[3]Sheet 1'!E38</f>
-        <v>0.67400000000000004</v>
+        <v>0.38800000000000001</v>
       </c>
       <c r="W49" s="11">
         <f>'[3]Sheet 1'!F38</f>
@@ -22837,7 +22842,7 @@
       </c>
       <c r="AH49" s="11">
         <f>'[4]Sheet 1'!E38</f>
-        <v>0.77700000000000002</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="AI49" s="11">
         <f>'[4]Sheet 1'!F38</f>
@@ -22879,7 +22884,7 @@
       </c>
       <c r="AT49" s="11">
         <f>'[5]Sheet 1'!E38</f>
-        <v>0.96399999999999997</v>
+        <v>0.95</v>
       </c>
       <c r="AU49" s="11">
         <f>'[5]Sheet 1'!F38</f>
@@ -22965,7 +22970,7 @@
       </c>
       <c r="V50" s="11">
         <f>'[3]Sheet 1'!E39</f>
-        <v>0.45400000000000001</v>
+        <v>0.23200000000000001</v>
       </c>
       <c r="W50" s="11">
         <f>'[3]Sheet 1'!F39</f>
@@ -23005,7 +23010,7 @@
       </c>
       <c r="AH50" s="11">
         <f>'[4]Sheet 1'!E39</f>
-        <v>0.89</v>
+        <v>0.88600000000000001</v>
       </c>
       <c r="AI50" s="11">
         <f>'[4]Sheet 1'!F39</f>
@@ -23045,7 +23050,7 @@
       </c>
       <c r="AT50" s="11">
         <f>'[5]Sheet 1'!E39</f>
-        <v>0.90300000000000002</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="AU50" s="11">
         <f>'[5]Sheet 1'!F39</f>
@@ -23131,7 +23136,7 @@
       </c>
       <c r="V51" s="11">
         <f>'[3]Sheet 1'!E40</f>
-        <v>0.35699999999999998</v>
+        <v>0.18</v>
       </c>
       <c r="W51" s="11">
         <f>'[3]Sheet 1'!F40</f>
@@ -23171,7 +23176,7 @@
       </c>
       <c r="AH51" s="11">
         <f>'[4]Sheet 1'!E40</f>
-        <v>0.77600000000000002</v>
+        <v>0.58899999999999997</v>
       </c>
       <c r="AI51" s="11">
         <f>'[4]Sheet 1'!F40</f>
@@ -23211,7 +23216,7 @@
       </c>
       <c r="AT51" s="11">
         <f>'[5]Sheet 1'!E40</f>
-        <v>0.89800000000000002</v>
+        <v>0.75600000000000001</v>
       </c>
       <c r="AU51" s="11">
         <f>'[5]Sheet 1'!F40</f>
@@ -23301,7 +23306,7 @@
       </c>
       <c r="V52" s="11">
         <f>'[3]Sheet 1'!E41</f>
-        <v>0.67500000000000004</v>
+        <v>0.35499999999999998</v>
       </c>
       <c r="W52" s="11">
         <f>'[3]Sheet 1'!F41</f>
@@ -23343,7 +23348,7 @@
       </c>
       <c r="AH52" s="11">
         <f>'[4]Sheet 1'!E41</f>
-        <v>0.79600000000000004</v>
+        <v>0.76500000000000001</v>
       </c>
       <c r="AI52" s="11">
         <f>'[4]Sheet 1'!F41</f>
@@ -23385,7 +23390,7 @@
       </c>
       <c r="AT52" s="11">
         <f>'[5]Sheet 1'!E41</f>
-        <v>0.98599999999999999</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="AU52" s="11">
         <f>'[5]Sheet 1'!F41</f>
@@ -23471,7 +23476,7 @@
       </c>
       <c r="V53" s="11">
         <f>'[3]Sheet 1'!E42</f>
-        <v>0.57299999999999995</v>
+        <v>0.36099999999999999</v>
       </c>
       <c r="W53" s="11">
         <f>'[3]Sheet 1'!F42</f>
@@ -23511,7 +23516,7 @@
       </c>
       <c r="AH53" s="11">
         <f>'[4]Sheet 1'!E42</f>
-        <v>0.80600000000000005</v>
+        <v>0.78800000000000003</v>
       </c>
       <c r="AI53" s="11">
         <f>'[4]Sheet 1'!F42</f>
@@ -23551,7 +23556,7 @@
       </c>
       <c r="AT53" s="11">
         <f>'[5]Sheet 1'!E42</f>
-        <v>0.97199999999999998</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="AU53" s="11">
         <f>'[5]Sheet 1'!F42</f>
@@ -23637,7 +23642,7 @@
       </c>
       <c r="V54" s="11">
         <f>'[3]Sheet 1'!E43</f>
-        <v>0.54400000000000004</v>
+        <v>0.46400000000000002</v>
       </c>
       <c r="W54" s="11">
         <f>'[3]Sheet 1'!F43</f>
@@ -23677,7 +23682,7 @@
       </c>
       <c r="AH54" s="11">
         <f>'[4]Sheet 1'!E43</f>
-        <v>0.83199999999999996</v>
+        <v>0.86</v>
       </c>
       <c r="AI54" s="11">
         <f>'[4]Sheet 1'!F43</f>
@@ -23717,7 +23722,7 @@
       </c>
       <c r="AT54" s="11">
         <f>'[5]Sheet 1'!E43</f>
-        <v>0.96399999999999997</v>
+        <v>0.98</v>
       </c>
       <c r="AU54" s="11">
         <f>'[5]Sheet 1'!F43</f>
@@ -23807,7 +23812,7 @@
       </c>
       <c r="V55" s="11">
         <f>'[3]Sheet 1'!E44</f>
-        <v>0.91900000000000004</v>
+        <v>0.84099999999999997</v>
       </c>
       <c r="W55" s="11">
         <f>'[3]Sheet 1'!F44</f>
@@ -23849,7 +23854,7 @@
       </c>
       <c r="AH55" s="11">
         <f>'[4]Sheet 1'!E44</f>
-        <v>0.89</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="AI55" s="11">
         <f>'[4]Sheet 1'!F44</f>
@@ -23891,7 +23896,7 @@
       </c>
       <c r="AT55" s="11">
         <f>'[5]Sheet 1'!E44</f>
-        <v>0.95799999999999996</v>
+        <v>0.98099999999999998</v>
       </c>
       <c r="AU55" s="11">
         <f>'[5]Sheet 1'!F44</f>
@@ -23977,7 +23982,7 @@
       </c>
       <c r="V56" s="11">
         <f>'[3]Sheet 1'!E45</f>
-        <v>0.93100000000000005</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="W56" s="11">
         <f>'[3]Sheet 1'!F45</f>
@@ -24017,7 +24022,7 @@
       </c>
       <c r="AH56" s="11">
         <f>'[4]Sheet 1'!E45</f>
-        <v>0.91300000000000003</v>
+        <v>0.93200000000000005</v>
       </c>
       <c r="AI56" s="11">
         <f>'[4]Sheet 1'!F45</f>
@@ -24057,7 +24062,7 @@
       </c>
       <c r="AT56" s="11">
         <f>'[5]Sheet 1'!E45</f>
-        <v>0.94</v>
+        <v>0.96199999999999997</v>
       </c>
       <c r="AU56" s="11">
         <f>'[5]Sheet 1'!F45</f>
@@ -24155,7 +24160,7 @@
       <c r="Z58" s="4"/>
       <c r="AA58" s="4"/>
       <c r="AC58" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AD58" s="1"/>
       <c r="AE58" s="6"/>
@@ -24168,7 +24173,7 @@
       <c r="AL58" s="4"/>
       <c r="AM58" s="4"/>
       <c r="AO58" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="AP58" s="1"/>
       <c r="AQ58" s="6"/>
@@ -24423,7 +24428,7 @@
       </c>
       <c r="V61" s="11">
         <f>'[3]Sheet 1'!E46</f>
-        <v>0.20300000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="W61" s="11">
         <f>'[3]Sheet 1'!F46</f>
@@ -24465,7 +24470,7 @@
       </c>
       <c r="AH61" s="11">
         <f>'[4]Sheet 1'!E46</f>
-        <v>0.16300000000000001</v>
+        <v>4.8000000000000001E-2</v>
       </c>
       <c r="AI61" s="11">
         <f>'[4]Sheet 1'!F46</f>
@@ -24507,7 +24512,7 @@
       </c>
       <c r="AT61" s="11">
         <f>'[5]Sheet 1'!E46</f>
-        <v>0.90600000000000003</v>
+        <v>0.88100000000000001</v>
       </c>
       <c r="AU61" s="11">
         <f>'[5]Sheet 1'!F46</f>
@@ -24594,7 +24599,7 @@
       </c>
       <c r="V62" s="11">
         <f>'[3]Sheet 1'!E47</f>
-        <v>0.10100000000000001</v>
+        <v>5.2999999999999999E-2</v>
       </c>
       <c r="W62" s="11">
         <f>'[3]Sheet 1'!F47</f>
@@ -24634,7 +24639,7 @@
       </c>
       <c r="AH62" s="11">
         <f>'[4]Sheet 1'!E47</f>
-        <v>0.26500000000000001</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="AI62" s="11">
         <f>'[4]Sheet 1'!F47</f>
@@ -24674,7 +24679,7 @@
       </c>
       <c r="AT62" s="11">
         <f>'[5]Sheet 1'!E47</f>
-        <v>0.78700000000000003</v>
+        <v>0.74299999999999999</v>
       </c>
       <c r="AU62" s="11">
         <f>'[5]Sheet 1'!F47</f>
@@ -24761,7 +24766,7 @@
       </c>
       <c r="V63" s="11">
         <f>'[3]Sheet 1'!E48</f>
-        <v>0.11700000000000001</v>
+        <v>6.3E-2</v>
       </c>
       <c r="W63" s="11">
         <f>'[3]Sheet 1'!F48</f>
@@ -24801,7 +24806,7 @@
       </c>
       <c r="AH63" s="11">
         <f>'[4]Sheet 1'!E48</f>
-        <v>0.72</v>
+        <v>0.46899999999999997</v>
       </c>
       <c r="AI63" s="11">
         <f>'[4]Sheet 1'!F48</f>
@@ -24841,7 +24846,7 @@
       </c>
       <c r="AT63" s="11">
         <f>'[5]Sheet 1'!E48</f>
-        <v>0.88400000000000001</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="AU63" s="11">
         <f>'[5]Sheet 1'!F48</f>
@@ -24932,7 +24937,7 @@
       </c>
       <c r="V64" s="11">
         <f>'[3]Sheet 1'!E49</f>
-        <v>0.11700000000000001</v>
+        <v>0.11600000000000001</v>
       </c>
       <c r="W64" s="11">
         <f>'[3]Sheet 1'!F49</f>
@@ -24974,7 +24979,7 @@
       </c>
       <c r="AH64" s="11">
         <f>'[4]Sheet 1'!E49</f>
-        <v>0.97399999999999998</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="AI64" s="11">
         <f>'[4]Sheet 1'!F49</f>
@@ -25016,7 +25021,7 @@
       </c>
       <c r="AT64" s="11">
         <f>'[5]Sheet 1'!E49</f>
-        <v>0.99099999999999999</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="AU64" s="11">
         <f>'[5]Sheet 1'!F49</f>
@@ -25103,7 +25108,7 @@
       </c>
       <c r="V65" s="11">
         <f>'[3]Sheet 1'!E50</f>
-        <v>0.111</v>
+        <v>7.5999999999999998E-2</v>
       </c>
       <c r="W65" s="11">
         <f>'[3]Sheet 1'!F50</f>
@@ -25143,7 +25148,7 @@
       </c>
       <c r="AH65" s="11">
         <f>'[4]Sheet 1'!E50</f>
-        <v>0.96399999999999997</v>
+        <v>0.95699999999999996</v>
       </c>
       <c r="AI65" s="11">
         <f>'[4]Sheet 1'!F50</f>
@@ -25183,7 +25188,7 @@
       </c>
       <c r="AT65" s="11">
         <f>'[5]Sheet 1'!E50</f>
-        <v>0.90900000000000003</v>
+        <v>0.80700000000000005</v>
       </c>
       <c r="AU65" s="11">
         <f>'[5]Sheet 1'!F50</f>
@@ -25270,7 +25275,7 @@
       </c>
       <c r="V66" s="11">
         <f>'[3]Sheet 1'!E51</f>
-        <v>0.124</v>
+        <v>0.105</v>
       </c>
       <c r="W66" s="11">
         <f>'[3]Sheet 1'!F51</f>
@@ -25310,7 +25315,7 @@
       </c>
       <c r="AH66" s="11">
         <f>'[4]Sheet 1'!E51</f>
-        <v>0.79500000000000004</v>
+        <v>0.26100000000000001</v>
       </c>
       <c r="AI66" s="11">
         <f>'[4]Sheet 1'!F51</f>
@@ -25350,7 +25355,7 @@
       </c>
       <c r="AT66" s="11">
         <f>'[5]Sheet 1'!E51</f>
-        <v>0.98399999999999999</v>
+        <v>0.71</v>
       </c>
       <c r="AU66" s="11">
         <f>'[5]Sheet 1'!F51</f>
@@ -25441,7 +25446,7 @@
       </c>
       <c r="V67" s="11">
         <f>'[3]Sheet 1'!E52</f>
-        <v>0.14699999999999999</v>
+        <v>0.129</v>
       </c>
       <c r="W67" s="11">
         <f>'[3]Sheet 1'!F52</f>
@@ -25483,7 +25488,7 @@
       </c>
       <c r="AH67" s="11">
         <f>'[4]Sheet 1'!E52</f>
-        <v>0.80600000000000005</v>
+        <v>0.80300000000000005</v>
       </c>
       <c r="AI67" s="11">
         <f>'[4]Sheet 1'!F52</f>
@@ -25525,7 +25530,7 @@
       </c>
       <c r="AT67" s="11">
         <f>'[5]Sheet 1'!E52</f>
-        <v>0.99399999999999999</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="AU67" s="11">
         <f>'[5]Sheet 1'!F52</f>
@@ -25612,7 +25617,7 @@
       </c>
       <c r="V68" s="11">
         <f>'[3]Sheet 1'!E53</f>
-        <v>0.13400000000000001</v>
+        <v>0.13100000000000001</v>
       </c>
       <c r="W68" s="11">
         <f>'[3]Sheet 1'!F53</f>
@@ -25652,7 +25657,7 @@
       </c>
       <c r="AH68" s="11">
         <f>'[4]Sheet 1'!E53</f>
-        <v>0.93500000000000005</v>
+        <v>0.94899999999999995</v>
       </c>
       <c r="AI68" s="11">
         <f>'[4]Sheet 1'!F53</f>
@@ -25692,7 +25697,7 @@
       </c>
       <c r="AT68" s="11">
         <f>'[5]Sheet 1'!E53</f>
-        <v>0.85499999999999998</v>
+        <v>0.77</v>
       </c>
       <c r="AU68" s="11">
         <f>'[5]Sheet 1'!F53</f>
@@ -25779,7 +25784,7 @@
       </c>
       <c r="V69" s="11">
         <f>'[3]Sheet 1'!E54</f>
-        <v>0.127</v>
+        <v>0.13300000000000001</v>
       </c>
       <c r="W69" s="11">
         <f>'[3]Sheet 1'!F54</f>
@@ -25819,7 +25824,7 @@
       </c>
       <c r="AH69" s="11">
         <f>'[4]Sheet 1'!E54</f>
-        <v>0.90200000000000002</v>
+        <v>0.91300000000000003</v>
       </c>
       <c r="AI69" s="11">
         <f>'[4]Sheet 1'!F54</f>
@@ -25859,7 +25864,7 @@
       </c>
       <c r="AT69" s="11">
         <f>'[5]Sheet 1'!E54</f>
-        <v>0.91</v>
+        <v>0.64100000000000001</v>
       </c>
       <c r="AU69" s="11">
         <f>'[5]Sheet 1'!F54</f>
@@ -25950,7 +25955,7 @@
       </c>
       <c r="V70" s="11">
         <f>'[3]Sheet 1'!E55</f>
-        <v>0.14499999999999999</v>
+        <v>0.14199999999999999</v>
       </c>
       <c r="W70" s="11">
         <f>'[3]Sheet 1'!F55</f>
@@ -25992,7 +25997,7 @@
       </c>
       <c r="AH70" s="11">
         <f>'[4]Sheet 1'!E55</f>
-        <v>0.90100000000000002</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="AI70" s="11">
         <f>'[4]Sheet 1'!F55</f>
@@ -26034,7 +26039,7 @@
       </c>
       <c r="AT70" s="11">
         <f>'[5]Sheet 1'!E55</f>
-        <v>0.998</v>
+        <v>0.98699999999999999</v>
       </c>
       <c r="AU70" s="11">
         <f>'[5]Sheet 1'!F55</f>
@@ -26121,7 +26126,7 @@
       </c>
       <c r="V71" s="11">
         <f>'[3]Sheet 1'!E56</f>
-        <v>0.128</v>
+        <v>0.114</v>
       </c>
       <c r="W71" s="11">
         <f>'[3]Sheet 1'!F56</f>
@@ -26161,7 +26166,7 @@
       </c>
       <c r="AH71" s="11">
         <f>'[4]Sheet 1'!E56</f>
-        <v>0.89800000000000002</v>
+        <v>0.88800000000000001</v>
       </c>
       <c r="AI71" s="11">
         <f>'[4]Sheet 1'!F56</f>
@@ -26201,7 +26206,7 @@
       </c>
       <c r="AT71" s="11">
         <f>'[5]Sheet 1'!E56</f>
-        <v>0.98599999999999999</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="AU71" s="11">
         <f>'[5]Sheet 1'!F56</f>
@@ -26344,7 +26349,7 @@
       </c>
       <c r="V73" s="11">
         <f>'[3]Sheet 1'!E57</f>
-        <v>0.36099999999999999</v>
+        <v>0.35</v>
       </c>
       <c r="W73" s="11">
         <f>'[3]Sheet 1'!F57</f>
@@ -26386,7 +26391,7 @@
       </c>
       <c r="AH73" s="11">
         <f>'[4]Sheet 1'!E57</f>
-        <v>0.254</v>
+        <v>0.2</v>
       </c>
       <c r="AI73" s="11">
         <f>'[4]Sheet 1'!F57</f>
@@ -26428,7 +26433,7 @@
       </c>
       <c r="AT73" s="11">
         <f>'[5]Sheet 1'!E57</f>
-        <v>0.56499999999999995</v>
+        <v>0.498</v>
       </c>
       <c r="AU73" s="11">
         <f>'[5]Sheet 1'!F57</f>
@@ -26515,7 +26520,7 @@
       </c>
       <c r="V74" s="11">
         <f>'[3]Sheet 1'!E58</f>
-        <v>0.41499999999999998</v>
+        <v>0.46</v>
       </c>
       <c r="W74" s="11">
         <f>'[3]Sheet 1'!F58</f>
@@ -26555,7 +26560,7 @@
       </c>
       <c r="AH74" s="11">
         <f>'[4]Sheet 1'!E58</f>
-        <v>8.1000000000000003E-2</v>
+        <v>8.6999999999999994E-2</v>
       </c>
       <c r="AI74" s="11">
         <f>'[4]Sheet 1'!F58</f>
@@ -26595,7 +26600,7 @@
       </c>
       <c r="AT74" s="11">
         <f>'[5]Sheet 1'!E58</f>
-        <v>0.83899999999999997</v>
+        <v>0.80800000000000005</v>
       </c>
       <c r="AU74" s="11">
         <f>'[5]Sheet 1'!F58</f>
@@ -26682,7 +26687,7 @@
       </c>
       <c r="V75" s="11">
         <f>'[3]Sheet 1'!E59</f>
-        <v>0.61399999999999999</v>
+        <v>0.72799999999999998</v>
       </c>
       <c r="W75" s="11">
         <f>'[3]Sheet 1'!F59</f>
@@ -26722,7 +26727,7 @@
       </c>
       <c r="AH75" s="11">
         <f>'[4]Sheet 1'!E59</f>
-        <v>9.9000000000000005E-2</v>
+        <v>0.13</v>
       </c>
       <c r="AI75" s="11">
         <f>'[4]Sheet 1'!F59</f>
@@ -26762,7 +26767,7 @@
       </c>
       <c r="AT75" s="11">
         <f>'[5]Sheet 1'!E59</f>
-        <v>0.85499999999999998</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="AU75" s="11">
         <f>'[5]Sheet 1'!F59</f>
@@ -26853,7 +26858,7 @@
       </c>
       <c r="V76" s="11">
         <f>'[3]Sheet 1'!E60</f>
-        <v>0.73299999999999998</v>
+        <v>0.78400000000000003</v>
       </c>
       <c r="W76" s="11">
         <f>'[3]Sheet 1'!F60</f>
@@ -26895,7 +26900,7 @@
       </c>
       <c r="AH76" s="11">
         <f>'[4]Sheet 1'!E60</f>
-        <v>0.14099999999999999</v>
+        <v>0.219</v>
       </c>
       <c r="AI76" s="11">
         <f>'[4]Sheet 1'!F60</f>
@@ -26937,7 +26942,7 @@
       </c>
       <c r="AT76" s="11">
         <f>'[5]Sheet 1'!E60</f>
-        <v>0.78700000000000003</v>
+        <v>0.82199999999999995</v>
       </c>
       <c r="AU76" s="11">
         <f>'[5]Sheet 1'!F60</f>
@@ -27023,7 +27028,7 @@
       </c>
       <c r="V77" s="11">
         <f>'[3]Sheet 1'!E61</f>
-        <v>0.72599999999999998</v>
+        <v>0.78</v>
       </c>
       <c r="W77" s="11">
         <f>'[3]Sheet 1'!F61</f>
@@ -27063,7 +27068,7 @@
       </c>
       <c r="AH77" s="11">
         <f>'[4]Sheet 1'!E61</f>
-        <v>0.14799999999999999</v>
+        <v>0.217</v>
       </c>
       <c r="AI77" s="11">
         <f>'[4]Sheet 1'!F61</f>
@@ -27103,7 +27108,7 @@
       </c>
       <c r="AT77" s="11">
         <f>'[5]Sheet 1'!E61</f>
-        <v>0.72099999999999997</v>
+        <v>0.79700000000000004</v>
       </c>
       <c r="AU77" s="11">
         <f>'[5]Sheet 1'!F61</f>
@@ -27188,7 +27193,7 @@
       </c>
       <c r="V78" s="11">
         <f>'[3]Sheet 1'!E62</f>
-        <v>0.60299999999999998</v>
+        <v>0.79500000000000004</v>
       </c>
       <c r="W78" s="11">
         <f>'[3]Sheet 1'!F62</f>
@@ -27228,7 +27233,7 @@
       </c>
       <c r="AH78" s="11">
         <f>'[4]Sheet 1'!E62</f>
-        <v>0.14199999999999999</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="AI78" s="11">
         <f>'[4]Sheet 1'!F62</f>
@@ -27268,7 +27273,7 @@
       </c>
       <c r="AT78" s="11">
         <f>'[5]Sheet 1'!E62</f>
-        <v>0.67300000000000004</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="AU78" s="11">
         <f>'[5]Sheet 1'!F62</f>
@@ -27357,7 +27362,7 @@
       </c>
       <c r="V79" s="11">
         <f>'[3]Sheet 1'!E63</f>
-        <v>0.53900000000000003</v>
+        <v>0.81299999999999994</v>
       </c>
       <c r="W79" s="11">
         <f>'[3]Sheet 1'!F63</f>
@@ -27399,7 +27404,7 @@
       </c>
       <c r="AH79" s="11">
         <f>'[4]Sheet 1'!E63</f>
-        <v>7.8E-2</v>
+        <v>0.13700000000000001</v>
       </c>
       <c r="AI79" s="11">
         <f>'[4]Sheet 1'!F63</f>
@@ -27441,7 +27446,7 @@
       </c>
       <c r="AT79" s="11">
         <f>'[5]Sheet 1'!E63</f>
-        <v>0.69799999999999995</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="AU79" s="11">
         <f>'[5]Sheet 1'!F63</f>
@@ -27527,7 +27532,7 @@
       </c>
       <c r="V80" s="11">
         <f>'[3]Sheet 1'!E64</f>
-        <v>0.624</v>
+        <v>0.81100000000000005</v>
       </c>
       <c r="W80" s="11">
         <f>'[3]Sheet 1'!F64</f>
@@ -27567,7 +27572,7 @@
       </c>
       <c r="AH80" s="11">
         <f>'[4]Sheet 1'!E64</f>
-        <v>6.6000000000000003E-2</v>
+        <v>0.129</v>
       </c>
       <c r="AI80" s="11">
         <f>'[4]Sheet 1'!F64</f>
@@ -27607,7 +27612,7 @@
       </c>
       <c r="AT80" s="11">
         <f>'[5]Sheet 1'!E64</f>
-        <v>0.89100000000000001</v>
+        <v>0.91800000000000004</v>
       </c>
       <c r="AU80" s="11">
         <f>'[5]Sheet 1'!F64</f>
@@ -27693,7 +27698,7 @@
       </c>
       <c r="V81" s="11">
         <f>'[3]Sheet 1'!E65</f>
-        <v>0.71199999999999997</v>
+        <v>0.81399999999999995</v>
       </c>
       <c r="W81" s="11">
         <f>'[3]Sheet 1'!F65</f>
@@ -27733,7 +27738,7 @@
       </c>
       <c r="AH81" s="11">
         <f>'[4]Sheet 1'!E65</f>
-        <v>0.19</v>
+        <v>0.32</v>
       </c>
       <c r="AI81" s="11">
         <f>'[4]Sheet 1'!F65</f>
@@ -27773,7 +27778,7 @@
       </c>
       <c r="AT81" s="11">
         <f>'[5]Sheet 1'!E65</f>
-        <v>0.85</v>
+        <v>0.88400000000000001</v>
       </c>
       <c r="AU81" s="11">
         <f>'[5]Sheet 1'!F65</f>
@@ -27863,7 +27868,7 @@
       </c>
       <c r="V82" s="11">
         <f>'[3]Sheet 1'!E66</f>
-        <v>0.77100000000000002</v>
+        <v>0.747</v>
       </c>
       <c r="W82" s="11">
         <f>'[3]Sheet 1'!F66</f>
@@ -27905,7 +27910,7 @@
       </c>
       <c r="AH82" s="11">
         <f>'[4]Sheet 1'!E66</f>
-        <v>0.30599999999999999</v>
+        <v>0.36</v>
       </c>
       <c r="AI82" s="11">
         <f>'[4]Sheet 1'!F66</f>
@@ -27947,7 +27952,7 @@
       </c>
       <c r="AT82" s="11">
         <f>'[5]Sheet 1'!E66</f>
-        <v>0.75700000000000001</v>
+        <v>0.75900000000000001</v>
       </c>
       <c r="AU82" s="11">
         <f>'[5]Sheet 1'!F66</f>
@@ -28033,7 +28038,7 @@
       </c>
       <c r="V83" s="11">
         <f>'[3]Sheet 1'!E67</f>
-        <v>0.73799999999999999</v>
+        <v>0.73499999999999999</v>
       </c>
       <c r="W83" s="11">
         <f>'[3]Sheet 1'!F67</f>
@@ -28073,7 +28078,7 @@
       </c>
       <c r="AH83" s="11">
         <f>'[4]Sheet 1'!E67</f>
-        <v>0.40100000000000002</v>
+        <v>0.47099999999999997</v>
       </c>
       <c r="AI83" s="11">
         <f>'[4]Sheet 1'!F67</f>
@@ -28113,7 +28118,7 @@
       </c>
       <c r="AT83" s="11">
         <f>'[5]Sheet 1'!E67</f>
-        <v>0.83799999999999997</v>
+        <v>0.82699999999999996</v>
       </c>
       <c r="AU83" s="11">
         <f>'[5]Sheet 1'!F67</f>
@@ -28244,7 +28249,7 @@
       </c>
       <c r="V85" s="11">
         <f>'[3]Sheet 1'!E68</f>
-        <v>1</v>
+        <v>0.999</v>
       </c>
       <c r="W85" s="11">
         <f>'[3]Sheet 1'!F68</f>
@@ -28286,7 +28291,7 @@
       </c>
       <c r="AH85" s="11">
         <f>'[4]Sheet 1'!E68</f>
-        <v>0.63</v>
+        <v>0.97799999999999998</v>
       </c>
       <c r="AI85" s="11">
         <f>'[4]Sheet 1'!F68</f>
@@ -28328,7 +28333,7 @@
       </c>
       <c r="AT85" s="11">
         <f>'[5]Sheet 1'!E68</f>
-        <v>0.60499999999999998</v>
+        <v>0.86299999999999999</v>
       </c>
       <c r="AU85" s="11">
         <f>'[5]Sheet 1'!F68</f>
@@ -28413,7 +28418,7 @@
       </c>
       <c r="V86" s="11">
         <f>'[3]Sheet 1'!E69</f>
-        <v>0.998</v>
+        <v>0.999</v>
       </c>
       <c r="W86" s="11">
         <f>'[3]Sheet 1'!F69</f>
@@ -28453,7 +28458,7 @@
       </c>
       <c r="AH86" s="11">
         <f>'[4]Sheet 1'!E69</f>
-        <v>0.64</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="AI86" s="11">
         <f>'[4]Sheet 1'!F69</f>
@@ -28493,7 +28498,7 @@
       </c>
       <c r="AT86" s="11">
         <f>'[5]Sheet 1'!E69</f>
-        <v>0.79800000000000004</v>
+        <v>0.95299999999999996</v>
       </c>
       <c r="AU86" s="11">
         <f>'[5]Sheet 1'!F69</f>
@@ -28578,7 +28583,7 @@
       </c>
       <c r="V87" s="11">
         <f>'[3]Sheet 1'!E70</f>
-        <v>0.97899999999999998</v>
+        <v>0.99099999999999999</v>
       </c>
       <c r="W87" s="11">
         <f>'[3]Sheet 1'!F70</f>
@@ -28618,7 +28623,7 @@
       </c>
       <c r="AH87" s="11">
         <f>'[4]Sheet 1'!E70</f>
-        <v>0.40699999999999997</v>
+        <v>0.96399999999999997</v>
       </c>
       <c r="AI87" s="11">
         <f>'[4]Sheet 1'!F70</f>
@@ -28658,7 +28663,7 @@
       </c>
       <c r="AT87" s="11">
         <f>'[5]Sheet 1'!E70</f>
-        <v>0.90700000000000003</v>
+        <v>0.98499999999999999</v>
       </c>
       <c r="AU87" s="11">
         <f>'[5]Sheet 1'!F70</f>
@@ -28747,7 +28752,7 @@
       </c>
       <c r="V88" s="11">
         <f>'[3]Sheet 1'!E71</f>
-        <v>0.95799999999999996</v>
+        <v>0.97299999999999998</v>
       </c>
       <c r="W88" s="11">
         <f>'[3]Sheet 1'!F71</f>
@@ -28789,7 +28794,7 @@
       </c>
       <c r="AH88" s="11">
         <f>'[4]Sheet 1'!E71</f>
-        <v>0.34399999999999997</v>
+        <v>0.71799999999999997</v>
       </c>
       <c r="AI88" s="11">
         <f>'[4]Sheet 1'!F71</f>
@@ -28831,7 +28836,7 @@
       </c>
       <c r="AT88" s="11">
         <f>'[5]Sheet 1'!E71</f>
-        <v>0.79900000000000004</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="AU88" s="11">
         <f>'[5]Sheet 1'!F71</f>
@@ -28917,7 +28922,7 @@
       </c>
       <c r="V89" s="11">
         <f>'[3]Sheet 1'!E72</f>
-        <v>0.94199999999999995</v>
+        <v>0.95799999999999996</v>
       </c>
       <c r="W89" s="11">
         <f>'[3]Sheet 1'!F72</f>
@@ -28957,7 +28962,7 @@
       </c>
       <c r="AH89" s="11">
         <f>'[4]Sheet 1'!E72</f>
-        <v>0.35099999999999998</v>
+        <v>0.71099999999999997</v>
       </c>
       <c r="AI89" s="11">
         <f>'[4]Sheet 1'!F72</f>
@@ -28997,7 +29002,7 @@
       </c>
       <c r="AT89" s="11">
         <f>'[5]Sheet 1'!E72</f>
-        <v>0.88200000000000001</v>
+        <v>0.96899999999999997</v>
       </c>
       <c r="AU89" s="11">
         <f>'[5]Sheet 1'!F72</f>
@@ -29082,7 +29087,7 @@
       </c>
       <c r="V90" s="11">
         <f>'[3]Sheet 1'!E73</f>
-        <v>0.82099999999999995</v>
+        <v>0.85599999999999998</v>
       </c>
       <c r="W90" s="11">
         <f>'[3]Sheet 1'!F73</f>
@@ -29122,7 +29127,7 @@
       </c>
       <c r="AH90" s="11">
         <f>'[4]Sheet 1'!E73</f>
-        <v>0.217</v>
+        <v>0.45100000000000001</v>
       </c>
       <c r="AI90" s="11">
         <f>'[4]Sheet 1'!F73</f>
@@ -29162,7 +29167,7 @@
       </c>
       <c r="AT90" s="11">
         <f>'[5]Sheet 1'!E73</f>
-        <v>0.77100000000000002</v>
+        <v>0.89400000000000002</v>
       </c>
       <c r="AU90" s="11">
         <f>'[5]Sheet 1'!F73</f>
@@ -29252,7 +29257,7 @@
       </c>
       <c r="V91" s="11">
         <f>'[3]Sheet 1'!E74</f>
-        <v>0.753</v>
+        <v>0.78100000000000003</v>
       </c>
       <c r="W91" s="11">
         <f>'[3]Sheet 1'!F74</f>
@@ -29294,7 +29299,7 @@
       </c>
       <c r="AH91" s="11">
         <f>'[4]Sheet 1'!E74</f>
-        <v>0.36699999999999999</v>
+        <v>0.46300000000000002</v>
       </c>
       <c r="AI91" s="11">
         <f>'[4]Sheet 1'!F74</f>
@@ -29336,7 +29341,7 @@
       </c>
       <c r="AT91" s="11">
         <f>'[5]Sheet 1'!E74</f>
-        <v>0.94699999999999995</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="AU91" s="11">
         <f>'[5]Sheet 1'!F74</f>
@@ -29422,7 +29427,7 @@
       </c>
       <c r="V92" s="11">
         <f>'[3]Sheet 1'!E75</f>
-        <v>0.70599999999999996</v>
+        <v>0.749</v>
       </c>
       <c r="W92" s="11">
         <f>'[3]Sheet 1'!F75</f>
@@ -29462,7 +29467,7 @@
       </c>
       <c r="AH92" s="11">
         <f>'[4]Sheet 1'!E75</f>
-        <v>0.41599999999999998</v>
+        <v>0.501</v>
       </c>
       <c r="AI92" s="11">
         <f>'[4]Sheet 1'!F75</f>
@@ -29502,7 +29507,7 @@
       </c>
       <c r="AT92" s="11">
         <f>'[5]Sheet 1'!E75</f>
-        <v>0.93799999999999994</v>
+        <v>0.96699999999999997</v>
       </c>
       <c r="AU92" s="11">
         <f>'[5]Sheet 1'!F75</f>
@@ -29588,7 +29593,7 @@
       </c>
       <c r="V93" s="11">
         <f>'[3]Sheet 1'!E76</f>
-        <v>0.64100000000000001</v>
+        <v>0.67100000000000004</v>
       </c>
       <c r="W93" s="11">
         <f>'[3]Sheet 1'!F76</f>
@@ -29628,7 +29633,7 @@
       </c>
       <c r="AH93" s="11">
         <f>'[4]Sheet 1'!E76</f>
-        <v>0.44</v>
+        <v>0.49</v>
       </c>
       <c r="AI93" s="11">
         <f>'[4]Sheet 1'!F76</f>
@@ -29668,7 +29673,7 @@
       </c>
       <c r="AT93" s="11">
         <f>'[5]Sheet 1'!E76</f>
-        <v>0.92400000000000004</v>
+        <v>0.95399999999999996</v>
       </c>
       <c r="AU93" s="11">
         <f>'[5]Sheet 1'!F76</f>
@@ -29758,7 +29763,7 @@
       </c>
       <c r="V94" s="11">
         <f>'[3]Sheet 1'!E77</f>
-        <v>0.49399999999999999</v>
+        <v>0.77700000000000002</v>
       </c>
       <c r="W94" s="11">
         <f>'[3]Sheet 1'!F77</f>
@@ -29800,7 +29805,7 @@
       </c>
       <c r="AH94" s="11">
         <f>'[4]Sheet 1'!E77</f>
-        <v>0.54600000000000004</v>
+        <v>0.69199999999999995</v>
       </c>
       <c r="AI94" s="11">
         <f>'[4]Sheet 1'!F77</f>
@@ -29842,7 +29847,7 @@
       </c>
       <c r="AT94" s="11">
         <f>'[5]Sheet 1'!E77</f>
-        <v>0.66300000000000003</v>
+        <v>0.84399999999999997</v>
       </c>
       <c r="AU94" s="11">
         <f>'[5]Sheet 1'!F77</f>
@@ -29928,7 +29933,7 @@
       </c>
       <c r="V95" s="11">
         <f>'[3]Sheet 1'!E78</f>
-        <v>0.317</v>
+        <v>0.53800000000000003</v>
       </c>
       <c r="W95" s="11">
         <f>'[3]Sheet 1'!F78</f>
@@ -29968,7 +29973,7 @@
       </c>
       <c r="AH95" s="11">
         <f>'[4]Sheet 1'!E78</f>
-        <v>0.69799999999999995</v>
+        <v>0.755</v>
       </c>
       <c r="AI95" s="11">
         <f>'[4]Sheet 1'!F78</f>
@@ -30008,7 +30013,7 @@
       </c>
       <c r="AT95" s="11">
         <f>'[5]Sheet 1'!E78</f>
-        <v>0.76400000000000001</v>
+        <v>0.84899999999999998</v>
       </c>
       <c r="AU95" s="11">
         <f>'[5]Sheet 1'!F78</f>
@@ -30338,37 +30343,37 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B1" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
